--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\trans\SYVbT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9934996-BA6C-4D81-84BC-D0EA35898ADB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="19425" windowHeight="11025" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,12 +25,19 @@
     <sheet name="SYVbT-passenger" sheetId="2" r:id="rId10"/>
     <sheet name="SYVbT-freight" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="457">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -1389,12 +1402,18 @@
   </si>
   <si>
     <t>Notes on calculation procedure are included on the tabs for each vehicle type.</t>
+  </si>
+  <si>
+    <t>http://cngva.org/success-story/central-okanagan-school-district-no-23-british-columbia/</t>
+  </si>
+  <si>
+    <t>https://calgary.ctvnews.ca/city-unveils-new-natural-gas-powered-buses-1.1191307</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1402,7 +1421,7 @@
     <numFmt numFmtId="165" formatCode="###0.00_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,6 +1660,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="31">
@@ -2320,7 +2345,7 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2427,155 +2452,159 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="141">
-    <cellStyle name="20% - Accent1 2" xfId="15"/>
-    <cellStyle name="20% - Accent2 2" xfId="16"/>
-    <cellStyle name="20% - Accent3 2" xfId="17"/>
-    <cellStyle name="20% - Accent4 2" xfId="18"/>
-    <cellStyle name="20% - Accent5 2" xfId="19"/>
-    <cellStyle name="20% - Accent6 2" xfId="20"/>
-    <cellStyle name="40% - Accent1 2" xfId="21"/>
-    <cellStyle name="40% - Accent2 2" xfId="22"/>
-    <cellStyle name="40% - Accent3 2" xfId="23"/>
-    <cellStyle name="40% - Accent4 2" xfId="24"/>
-    <cellStyle name="40% - Accent5 2" xfId="25"/>
-    <cellStyle name="40% - Accent6 2" xfId="26"/>
-    <cellStyle name="60% - Accent1 2" xfId="27"/>
-    <cellStyle name="60% - Accent2 2" xfId="28"/>
-    <cellStyle name="60% - Accent3 2" xfId="29"/>
-    <cellStyle name="60% - Accent4 2" xfId="30"/>
-    <cellStyle name="60% - Accent5 2" xfId="31"/>
-    <cellStyle name="60% - Accent6 2" xfId="32"/>
-    <cellStyle name="Accent1 2" xfId="33"/>
-    <cellStyle name="Accent2 2" xfId="34"/>
-    <cellStyle name="Accent3 2" xfId="35"/>
-    <cellStyle name="Accent4 2" xfId="36"/>
-    <cellStyle name="Accent5 2" xfId="37"/>
-    <cellStyle name="Accent6 2" xfId="38"/>
-    <cellStyle name="Bad 2" xfId="39"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="40"/>
-    <cellStyle name="Check Cell 2" xfId="41"/>
-    <cellStyle name="Comma 2" xfId="42"/>
-    <cellStyle name="Comma 2 2" xfId="11"/>
-    <cellStyle name="Comma 2 2 2" xfId="43"/>
-    <cellStyle name="Comma 2 2 3" xfId="44"/>
-    <cellStyle name="Comma 2 3" xfId="45"/>
-    <cellStyle name="Comma 3" xfId="46"/>
-    <cellStyle name="Comma 4" xfId="47"/>
-    <cellStyle name="Comma 5" xfId="48"/>
-    <cellStyle name="Comma 6" xfId="49"/>
-    <cellStyle name="Comma 7" xfId="50"/>
-    <cellStyle name="Currency 2" xfId="51"/>
-    <cellStyle name="Currency 3" xfId="52"/>
-    <cellStyle name="Currency 3 2" xfId="53"/>
-    <cellStyle name="Data" xfId="54"/>
-    <cellStyle name="Data no deci" xfId="55"/>
-    <cellStyle name="Data Superscript" xfId="56"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
-    <cellStyle name="Explanatory Text 2" xfId="58"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Good 2" xfId="59"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Heading 1 2" xfId="60"/>
-    <cellStyle name="Heading 2 2" xfId="61"/>
-    <cellStyle name="Heading 3 2" xfId="62"/>
-    <cellStyle name="Heading 4 2" xfId="63"/>
-    <cellStyle name="Hed Side" xfId="13"/>
-    <cellStyle name="Hed Side bold" xfId="64"/>
-    <cellStyle name="Hed Side Indent" xfId="65"/>
-    <cellStyle name="Hed Side Regular" xfId="66"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
-    <cellStyle name="Hed Top" xfId="68"/>
-    <cellStyle name="Input 2" xfId="69"/>
-    <cellStyle name="Linked Cell 2" xfId="70"/>
-    <cellStyle name="Neutral 2" xfId="71"/>
+    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72"/>
-    <cellStyle name="Normal 11" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="73"/>
-    <cellStyle name="Normal 2 2 2" xfId="74"/>
-    <cellStyle name="Normal 2 2 3" xfId="75"/>
-    <cellStyle name="Normal 2 3" xfId="76"/>
-    <cellStyle name="Normal 2 4" xfId="77"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 3 2" xfId="78"/>
-    <cellStyle name="Normal 3 2 2" xfId="79"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 3" xfId="81"/>
-    <cellStyle name="Normal 3 3" xfId="82"/>
-    <cellStyle name="Normal 3 3 2" xfId="83"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
-    <cellStyle name="Normal 3 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 4" xfId="86"/>
-    <cellStyle name="Normal 3 4 2" xfId="87"/>
-    <cellStyle name="Normal 3 5" xfId="88"/>
-    <cellStyle name="Normal 3 6" xfId="89"/>
-    <cellStyle name="Normal 3 7" xfId="90"/>
-    <cellStyle name="Normal 3 8" xfId="91"/>
-    <cellStyle name="Normal 3 9" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="92"/>
-    <cellStyle name="Normal 4 2" xfId="93"/>
-    <cellStyle name="Normal 4 2 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 3" xfId="96"/>
-    <cellStyle name="Normal 4 3" xfId="97"/>
-    <cellStyle name="Normal 4 3 2" xfId="98"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 3" xfId="100"/>
-    <cellStyle name="Normal 4 4" xfId="101"/>
-    <cellStyle name="Normal 4 4 2" xfId="102"/>
-    <cellStyle name="Normal 4 5" xfId="103"/>
-    <cellStyle name="Normal 4 6" xfId="104"/>
-    <cellStyle name="Normal 4 7" xfId="105"/>
-    <cellStyle name="Normal 4 8" xfId="106"/>
-    <cellStyle name="Normal 5" xfId="107"/>
-    <cellStyle name="Normal 5 2" xfId="108"/>
-    <cellStyle name="Normal 5 3" xfId="109"/>
-    <cellStyle name="Normal 6" xfId="110"/>
-    <cellStyle name="Normal 6 2" xfId="111"/>
-    <cellStyle name="Normal 7" xfId="112"/>
-    <cellStyle name="Normal 8" xfId="113"/>
-    <cellStyle name="Normal 9" xfId="114"/>
-    <cellStyle name="Note 2" xfId="115"/>
-    <cellStyle name="Note 2 2" xfId="116"/>
-    <cellStyle name="Output 2" xfId="117"/>
-    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
     <cellStyle name="Percent" xfId="140" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="118"/>
-    <cellStyle name="Percent 2 2" xfId="119"/>
-    <cellStyle name="Percent 3" xfId="120"/>
-    <cellStyle name="Percent 3 2" xfId="121"/>
-    <cellStyle name="Source Hed" xfId="122"/>
-    <cellStyle name="Source Superscript" xfId="123"/>
-    <cellStyle name="Source Text" xfId="9"/>
-    <cellStyle name="State" xfId="124"/>
-    <cellStyle name="Superscript" xfId="125"/>
-    <cellStyle name="Table Data" xfId="126"/>
-    <cellStyle name="Table Head Top" xfId="127"/>
-    <cellStyle name="Table Hed Side" xfId="128"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Title 2" xfId="129"/>
-    <cellStyle name="Title Text" xfId="130"/>
-    <cellStyle name="Title Text 1" xfId="131"/>
-    <cellStyle name="Title Text 2" xfId="132"/>
-    <cellStyle name="Title-1" xfId="14"/>
-    <cellStyle name="Title-2" xfId="133"/>
-    <cellStyle name="Title-3" xfId="134"/>
-    <cellStyle name="Total 2" xfId="135"/>
-    <cellStyle name="Warning Text 2" xfId="136"/>
-    <cellStyle name="Wrap" xfId="137"/>
-    <cellStyle name="Wrap Bold" xfId="138"/>
-    <cellStyle name="Wrap Title" xfId="139"/>
+    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2624,7 +2653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2657,9 +2686,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2692,6 +2738,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2867,14 +2930,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.1796875" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3202,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3210,15 +3275,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3397,7 +3462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3405,15 +3470,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3589,15 +3654,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3821,15 +3886,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="5" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3847,7 +3912,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29">
+    <row r="5" spans="1:5" ht="30">
       <c r="B5" s="50" t="s">
         <v>370</v>
       </c>
@@ -3935,15 +4000,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4513,15 +4578,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4647,18 +4712,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4758,13 +4825,13 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>316</v>
+      <c r="A22" s="66" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>317</v>
+      <c r="A23" s="66" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4873,7 +4940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AM199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4883,11 +4950,11 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="20.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1">
@@ -25960,14 +26027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -27669,15 +27736,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="7" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -27685,12 +27752,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="63" t="s">
         <v>240</v>
@@ -27841,7 +27908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="32" t="s">
         <v>239</v>
       </c>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/SYVbT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="766" documentId="11_7630BD2150AEA4A6A03A16081019FEB42C6D9DFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE3BC97-FA3D-426E-B720-22BD893EF71E}"/>
+  <xr:revisionPtr revIDLastSave="812" documentId="11_7630BD2150AEA4A6A03A16081019FEB42C6D9DFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52439C2D-0AB0-4EC2-BAFB-3240A7993D6A}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="15840" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="650">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -2559,19 +2559,25 @@
   <si>
     <t>*Freight natural gas trucks are calculated based on total freight truck percentages because there are no Light duty natural gas trucks</t>
   </si>
+  <si>
+    <t xml:space="preserve">Trains by type (2018) </t>
+  </si>
+  <si>
+    <t>Locomotives by type (2018)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -3532,7 +3538,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -3567,28 +3573,28 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="6">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3677,7 +3683,7 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0">
@@ -3786,11 +3792,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3810,7 +3816,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3828,8 +3834,8 @@
     <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="140" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="140" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3848,7 +3854,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4454,13 +4460,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4776,7 +4782,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:22">
       <c r="B2" s="13"/>
@@ -4801,7 +4807,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
     </row>
-    <row r="3" spans="2:22" ht="18">
+    <row r="3" spans="2:22" ht="17.649999999999999">
       <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
@@ -4850,7 +4856,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="2:22" ht="15.95">
+    <row r="5" spans="2:22" ht="15.4">
       <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
@@ -4874,7 +4880,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="2:22" ht="15.95">
+    <row r="6" spans="2:22" ht="15.4">
       <c r="B6" s="14" t="s">
         <v>219</v>
       </c>
@@ -6158,7 +6164,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="2:22" ht="86.1">
+    <row r="34" spans="2:22" ht="80.25">
       <c r="B34" s="17"/>
       <c r="C34" s="19" t="s">
         <v>221</v>
@@ -6221,7 +6227,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="35" spans="2:22">
+    <row r="35" spans="2:22" ht="15">
       <c r="B35" s="13"/>
       <c r="C35" s="25" t="s">
         <v>214</v>
@@ -7172,9 +7178,9 @@
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:21" ht="18">
+    <row r="2" spans="1:21" ht="17.649999999999999">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -7224,7 +7230,7 @@
       <c r="T3" s="50"/>
       <c r="U3" s="50"/>
     </row>
-    <row r="4" spans="1:21" ht="15.95">
+    <row r="4" spans="1:21" ht="15.4">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -7249,7 +7255,7 @@
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
     </row>
-    <row r="5" spans="1:21" ht="15.95">
+    <row r="5" spans="1:21" ht="15.4">
       <c r="A5" s="14" t="s">
         <v>222</v>
       </c>
@@ -8539,7 +8545,7 @@
       <c r="T32" s="50"/>
       <c r="U32" s="50"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" ht="14.65">
       <c r="A33" s="17"/>
       <c r="B33" s="52" t="s">
         <v>227</v>
@@ -8602,7 +8608,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="50"/>
       <c r="B34" s="46" t="s">
         <v>214</v>
@@ -9530,9 +9536,9 @@
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
+    <row r="1" spans="1:21" ht="17.649999999999999">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -9556,7 +9562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.95">
+    <row r="3" spans="1:21" ht="15.4">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -9564,7 +9570,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:21" ht="15.95">
+    <row r="4" spans="1:21" ht="15.4">
       <c r="A4" s="14" t="s">
         <v>228</v>
       </c>
@@ -10392,7 +10398,7 @@
         <v>5.9011940000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" ht="14.65">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>230</v>
@@ -10455,7 +10461,7 @@
         <v>21.600508999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" ht="15">
       <c r="B29" s="46" t="s">
         <v>214</v>
       </c>
@@ -11118,9 +11124,9 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
+    <row r="1" spans="1:21" ht="17.649999999999999">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -11144,7 +11150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.95">
+    <row r="3" spans="1:21" ht="15.4">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -11152,7 +11158,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:21" ht="15.95">
+    <row r="4" spans="1:21" ht="15.4">
       <c r="A4" s="14" t="s">
         <v>231</v>
       </c>
@@ -11220,7 +11226,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.95">
+    <row r="9" spans="1:21" ht="15.4">
       <c r="A9" s="17"/>
       <c r="B9" s="52" t="s">
         <v>232</v>
@@ -12755,7 +12761,7 @@
     <row r="39" spans="1:21">
       <c r="B39" s="67"/>
     </row>
-    <row r="40" spans="1:21" ht="15.95">
+    <row r="40" spans="1:21" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="52" t="s">
         <v>233</v>
@@ -12818,7 +12824,7 @@
         <v>34.611961000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="72">
+    <row r="41" spans="1:21" ht="66">
       <c r="A41" s="7"/>
       <c r="B41" s="68" t="s">
         <v>120</v>
@@ -14255,7 +14261,7 @@
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" s="13"/>
@@ -14281,7 +14287,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="2:24" ht="18">
+    <row r="3" spans="2:24" ht="17.649999999999999">
       <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
@@ -14332,7 +14338,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
     </row>
-    <row r="5" spans="2:24" ht="15.95">
+    <row r="5" spans="2:24" ht="15.4">
       <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
@@ -14357,7 +14363,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="2:24" ht="15.95">
+    <row r="6" spans="2:24" ht="15.4">
       <c r="B6" s="14" t="s">
         <v>235</v>
       </c>
@@ -15671,7 +15677,7 @@
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
     </row>
-    <row r="34" spans="2:23">
+    <row r="34" spans="2:23" ht="14.65">
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
         <v>237</v>
@@ -15735,7 +15741,7 @@
       </c>
       <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="2:23">
+    <row r="35" spans="2:23" ht="15">
       <c r="B35" s="13"/>
       <c r="C35" s="25" t="s">
         <v>214</v>
@@ -16704,9 +16710,9 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:21" ht="18">
+    <row r="2" spans="1:21" ht="17.649999999999999">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -16756,7 +16762,7 @@
       <c r="T3" s="50"/>
       <c r="U3" s="50"/>
     </row>
-    <row r="4" spans="1:21" ht="15.95">
+    <row r="4" spans="1:21" ht="15.4">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -16781,7 +16787,7 @@
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
     </row>
-    <row r="5" spans="1:21" ht="15.95">
+    <row r="5" spans="1:21" ht="15.4">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
@@ -16936,7 +16942,7 @@
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
     </row>
-    <row r="10" spans="1:21" ht="59.1">
+    <row r="10" spans="1:21" ht="54.75">
       <c r="A10" s="17"/>
       <c r="B10" s="19" t="s">
         <v>239</v>
@@ -17567,7 +17573,7 @@
       <c r="T24" s="50"/>
       <c r="U24" s="50"/>
     </row>
-    <row r="25" spans="1:21" ht="74.099999999999994">
+    <row r="25" spans="1:21" ht="69">
       <c r="A25" s="17"/>
       <c r="B25" s="64" t="s">
         <v>241</v>
@@ -17630,7 +17636,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="50"/>
       <c r="B26" s="46" t="s">
         <v>214</v>
@@ -18102,9 +18108,9 @@
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:21" ht="18">
+    <row r="2" spans="1:21" ht="17.649999999999999">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -18128,7 +18134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.95">
+    <row r="4" spans="1:21" ht="15.4">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -18136,7 +18142,7 @@
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:21" ht="15.95">
+    <row r="5" spans="1:21" ht="15.4">
       <c r="A5" s="14" t="s">
         <v>243</v>
       </c>
@@ -18220,7 +18226,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="57">
+    <row r="10" spans="1:21" ht="52.9">
       <c r="A10" s="17"/>
       <c r="B10" s="19" t="s">
         <v>244</v>
@@ -18668,7 +18674,7 @@
         <v>3357.1370000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="42.95">
+    <row r="22" spans="1:21" ht="39.75">
       <c r="A22" s="17"/>
       <c r="B22" s="63" t="s">
         <v>247</v>
@@ -18754,7 +18760,7 @@
       <c r="T23" s="49"/>
       <c r="U23" s="49"/>
     </row>
-    <row r="25" spans="1:21" ht="72">
+    <row r="25" spans="1:21" ht="67.150000000000006">
       <c r="A25" s="17"/>
       <c r="B25" s="19" t="s">
         <v>248</v>
@@ -18817,7 +18823,7 @@
         <v>0.54017999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="15">
       <c r="B26" s="46" t="s">
         <v>214</v>
       </c>
@@ -19219,7 +19225,7 @@
         <v>69.069860000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="18">
+    <row r="39" spans="1:21" ht="17.649999999999999">
       <c r="A39" s="12" t="s">
         <v>49</v>
       </c>
@@ -19243,7 +19249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.95">
+    <row r="41" spans="1:21" ht="15.4">
       <c r="A41" s="14" t="s">
         <v>51</v>
       </c>
@@ -19251,7 +19257,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
     </row>
-    <row r="42" spans="1:21" ht="15.95">
+    <row r="42" spans="1:21" ht="15.4">
       <c r="A42" s="14" t="s">
         <v>249</v>
       </c>
@@ -19335,7 +19341,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="71.099999999999994">
+    <row r="47" spans="1:21" ht="66">
       <c r="A47" s="17"/>
       <c r="B47" s="19" t="s">
         <v>250</v>
@@ -19721,7 +19727,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15.95">
+    <row r="57" spans="1:21" ht="15">
       <c r="B57" s="48" t="s">
         <v>251</v>
       </c>
@@ -19783,7 +19789,7 @@
         <v>227453.11199999999</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="45">
+    <row r="59" spans="1:21" ht="41.65">
       <c r="A59" s="17"/>
       <c r="B59" s="63" t="s">
         <v>252</v>
@@ -19869,7 +19875,7 @@
       <c r="T60" s="49"/>
       <c r="U60" s="49"/>
     </row>
-    <row r="62" spans="1:21" ht="86.1">
+    <row r="62" spans="1:21" ht="80.25">
       <c r="A62" s="17"/>
       <c r="B62" s="19" t="s">
         <v>253</v>
@@ -19932,7 +19938,7 @@
         <v>22.671247999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" ht="15">
       <c r="B63" s="46" t="s">
         <v>214</v>
       </c>
@@ -20352,10 +20358,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="53.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -20364,7 +20370,7 @@
       </c>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -40070,6 +40076,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="/?id=148-AEO2020&amp;region=0-0&amp;cases=ref2020&amp;start=2018&amp;end=2050&amp;f=A&amp;sourcekey=0" xr:uid="{E233CE5A-3A38-4994-8E7C-69E597584556}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -40082,17 +40091,17 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="48">
+    <row r="2" spans="1:10" ht="42.75">
       <c r="A2" s="22" t="s">
         <v>633</v>
       </c>
@@ -40201,8 +40210,8 @@
         <v>10</v>
       </c>
       <c r="B6" s="95">
-        <f>Rail!B84</f>
-        <v>4184.4148772128656</v>
+        <f>Rail!C84</f>
+        <v>3478.3395087824001</v>
       </c>
       <c r="I6" s="31"/>
     </row>
@@ -40240,17 +40249,17 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48">
+    <row r="1" spans="1:9" ht="42.75">
       <c r="A1" s="36" t="s">
         <v>633</v>
       </c>
@@ -40339,8 +40348,8 @@
         <v>10</v>
       </c>
       <c r="B5" s="96">
-        <f>Rail!B85</f>
-        <v>2317.5851227871344</v>
+        <f>Rail!C85</f>
+        <v>2296.6604912175994</v>
       </c>
       <c r="I5" s="31"/>
     </row>
@@ -40381,16 +40390,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E9B94C-C797-4929-9DFC-9C158B80BD52}">
   <dimension ref="B2:V65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:J50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="18">
+    <row r="2" spans="2:22" ht="17.649999999999999">
       <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
@@ -40439,7 +40450,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="2:22" ht="15.95">
+    <row r="4" spans="2:22" ht="15.4">
       <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
@@ -40463,7 +40474,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="2:22" ht="15.95">
+    <row r="5" spans="2:22" ht="15.4">
       <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
@@ -40886,7 +40897,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="2:22" ht="42.95">
+    <row r="18" spans="2:22" ht="39.75">
       <c r="B18" s="13"/>
       <c r="C18" s="19" t="s">
         <v>57</v>
@@ -40997,7 +41008,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="2:22" ht="57">
+    <row r="21" spans="2:22" ht="52.9">
       <c r="B21" s="13"/>
       <c r="C21" s="19" t="s">
         <v>58</v>
@@ -41645,22 +41656,22 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="8" width="23.265625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.95">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>633</v>
       </c>
@@ -41796,7 +41807,7 @@
       </c>
       <c r="E5" s="6">
         <f>Passenger!B6</f>
-        <v>4184.4148772128656</v>
+        <v>3478.3395087824001</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -41932,22 +41943,22 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="8" width="23.265625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.95">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>633</v>
       </c>
@@ -42084,7 +42095,7 @@
       </c>
       <c r="E5" s="6">
         <f>Freight!B5</f>
-        <v>2317.5851227871344</v>
+        <v>2296.6604912175994</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -42161,13 +42172,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CF0FB4-E807-48E0-A6D3-BD685128A276}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -42194,7 +42205,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="2:23" ht="18">
+    <row r="3" spans="2:23" ht="17.649999999999999">
       <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
@@ -42245,7 +42256,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
     </row>
-    <row r="5" spans="2:23" ht="15.95">
+    <row r="5" spans="2:23" ht="15.4">
       <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
@@ -42270,7 +42281,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="2:23" ht="15.95">
+    <row r="6" spans="2:23" ht="15.4">
       <c r="B6" s="14" t="s">
         <v>86</v>
       </c>
@@ -43983,7 +43994,7 @@
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
     </row>
-    <row r="42" spans="2:23" ht="84.95">
+    <row r="42" spans="2:23" ht="92.25">
       <c r="B42" s="13"/>
       <c r="C42" s="19" t="s">
         <v>92</v>
@@ -44161,7 +44172,7 @@
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
     </row>
-    <row r="46" spans="2:23" ht="84.95">
+    <row r="46" spans="2:23" ht="92.25">
       <c r="B46" s="13"/>
       <c r="C46" s="19" t="s">
         <v>93</v>
@@ -44339,7 +44350,7 @@
       <c r="V49" s="13"/>
       <c r="W49" s="13"/>
     </row>
-    <row r="50" spans="2:23" ht="84.95">
+    <row r="50" spans="2:23" ht="92.25">
       <c r="B50" s="13"/>
       <c r="C50" s="19" t="s">
         <v>96</v>
@@ -44517,7 +44528,7 @@
       <c r="V53" s="13"/>
       <c r="W53" s="13"/>
     </row>
-    <row r="54" spans="2:23" ht="71.099999999999994">
+    <row r="54" spans="2:23" ht="79.150000000000006">
       <c r="B54" s="13"/>
       <c r="C54" s="19" t="s">
         <v>97</v>
@@ -44719,11 +44730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E3558-C86E-46EF-8524-432972FDBF0C}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13"/>
@@ -44749,7 +44760,7 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:22" ht="18">
+    <row r="2" spans="1:22" ht="17.649999999999999">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -44800,7 +44811,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="1:22" ht="15.95">
+    <row r="4" spans="1:22" ht="15.4">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -44825,7 +44836,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:22" ht="15.95">
+    <row r="5" spans="1:22" ht="15.4">
       <c r="A5" s="14" t="s">
         <v>99</v>
       </c>
@@ -45468,7 +45479,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22" ht="71.099999999999994">
+    <row r="20" spans="1:22" ht="66">
       <c r="A20" s="13"/>
       <c r="B20" s="19" t="s">
         <v>57</v>
@@ -45815,13 +45826,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98941790-B3F3-4B5A-9B2F-E7A68150E057}">
   <dimension ref="B2:W74"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:23" ht="18">
+    <row r="2" spans="2:23" ht="17.649999999999999">
       <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
@@ -45872,7 +45883,7 @@
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="2:23" ht="15.95">
+    <row r="4" spans="2:23" ht="15.4">
       <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
@@ -45897,7 +45908,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="2:23" ht="15.95">
+    <row r="5" spans="2:23" ht="15.4">
       <c r="B5" s="14" t="s">
         <v>103</v>
       </c>
@@ -46050,7 +46061,7 @@
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="2:23" ht="15.95">
+    <row r="10" spans="2:23" ht="15.4">
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
         <v>104</v>
@@ -47720,7 +47731,7 @@
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
     </row>
-    <row r="41" spans="2:23" ht="15.95">
+    <row r="41" spans="2:23" ht="15.75">
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
         <v>119</v>
@@ -47784,7 +47795,7 @@
       </c>
       <c r="W41" s="13"/>
     </row>
-    <row r="42" spans="2:23" ht="86.1">
+    <row r="42" spans="2:23" ht="78.75">
       <c r="B42" s="13"/>
       <c r="C42" s="30" t="s">
         <v>120</v>
@@ -49430,7 +49441,7 @@
       </c>
       <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="2:23" ht="129">
+    <row r="72" spans="2:23" ht="117">
       <c r="B72" s="7"/>
       <c r="C72" s="29" t="s">
         <v>123</v>
@@ -49551,13 +49562,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBAF655-364F-484F-8B32-5B149F762351}">
   <dimension ref="A2:Q85"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
@@ -49580,7 +49591,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.95">
+    <row r="4" spans="1:17">
       <c r="A4" s="88" t="s">
         <v>127</v>
       </c>
@@ -49634,7 +49645,7 @@
       <c r="K5" s="89"/>
       <c r="Q5" s="70"/>
     </row>
-    <row r="6" spans="1:17" ht="18">
+    <row r="6" spans="1:17" ht="17.649999999999999">
       <c r="A6" s="89" t="s">
         <v>131</v>
       </c>
@@ -49646,7 +49657,9 @@
       <c r="G6" s="89"/>
       <c r="H6" s="89"/>
       <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="J6" s="89">
+        <v>2499</v>
+      </c>
       <c r="K6" s="89">
         <v>2399</v>
       </c>
@@ -49654,7 +49667,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="17.649999999999999">
       <c r="A7" s="89" t="s">
         <v>133</v>
       </c>
@@ -49666,7 +49679,9 @@
       <c r="G7" s="89"/>
       <c r="H7" s="89"/>
       <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
+      <c r="J7" s="89">
+        <v>444</v>
+      </c>
       <c r="K7" s="89">
         <v>457</v>
       </c>
@@ -49674,7 +49689,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18">
+    <row r="8" spans="1:17" ht="17.649999999999999">
       <c r="A8" s="89" t="s">
         <v>135</v>
       </c>
@@ -49686,7 +49701,9 @@
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="J8" s="89">
+        <v>2863</v>
+      </c>
       <c r="K8" s="89">
         <v>2856</v>
       </c>
@@ -49694,7 +49711,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18">
+    <row r="9" spans="1:17" ht="17.649999999999999">
       <c r="A9" s="91" t="s">
         <v>137</v>
       </c>
@@ -49712,7 +49729,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18">
+    <row r="10" spans="1:17" ht="17.649999999999999">
       <c r="A10" s="89" t="s">
         <v>131</v>
       </c>
@@ -49724,7 +49741,9 @@
       <c r="G10" s="89"/>
       <c r="H10" s="89"/>
       <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
+      <c r="J10" s="89">
+        <v>363</v>
+      </c>
       <c r="K10" s="89">
         <v>293</v>
       </c>
@@ -49732,7 +49751,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18">
+    <row r="11" spans="1:17" ht="17.649999999999999">
       <c r="A11" s="89" t="s">
         <v>133</v>
       </c>
@@ -49744,7 +49763,9 @@
       <c r="G11" s="89"/>
       <c r="H11" s="89"/>
       <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
+      <c r="J11" s="89">
+        <v>84</v>
+      </c>
       <c r="K11" s="89">
         <v>89</v>
       </c>
@@ -49752,7 +49773,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18">
+    <row r="12" spans="1:17" ht="17.649999999999999">
       <c r="A12" s="89" t="s">
         <v>135</v>
       </c>
@@ -49764,7 +49785,9 @@
       <c r="G12" s="89"/>
       <c r="H12" s="89"/>
       <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
+      <c r="J12" s="89">
+        <v>447</v>
+      </c>
       <c r="K12" s="89">
         <v>382</v>
       </c>
@@ -49772,7 +49795,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18">
+    <row r="13" spans="1:17" ht="17.649999999999999">
       <c r="A13" s="91" t="s">
         <v>141</v>
       </c>
@@ -49790,7 +49813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18">
+    <row r="14" spans="1:17" ht="17.649999999999999">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -49802,7 +49825,9 @@
       <c r="G14" s="89"/>
       <c r="H14" s="89"/>
       <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
+      <c r="J14" s="89">
+        <v>2782</v>
+      </c>
       <c r="K14" s="89">
         <v>2692</v>
       </c>
@@ -49810,7 +49835,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18">
+    <row r="15" spans="1:17" ht="17.649999999999999">
       <c r="A15" s="89" t="s">
         <v>133</v>
       </c>
@@ -49822,7 +49847,9 @@
       <c r="G15" s="89"/>
       <c r="H15" s="89"/>
       <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
+      <c r="J15" s="89">
+        <v>528</v>
+      </c>
       <c r="K15" s="89">
         <v>546</v>
       </c>
@@ -49830,7 +49857,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18">
+    <row r="16" spans="1:17" ht="17.649999999999999">
       <c r="A16" s="89" t="s">
         <v>135</v>
       </c>
@@ -49842,7 +49869,9 @@
       <c r="G16" s="89"/>
       <c r="H16" s="89"/>
       <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
+      <c r="J16" s="89">
+        <v>3310</v>
+      </c>
       <c r="K16" s="89">
         <v>3238</v>
       </c>
@@ -49850,7 +49879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18">
+    <row r="17" spans="1:17" ht="17.649999999999999">
       <c r="A17" s="89"/>
       <c r="B17" s="89"/>
       <c r="C17" s="89"/>
@@ -49866,7 +49895,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18">
+    <row r="18" spans="1:17" ht="17.649999999999999">
       <c r="A18" s="92" t="s">
         <v>145</v>
       </c>
@@ -49884,7 +49913,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18">
+    <row r="19" spans="1:17" ht="17.649999999999999">
       <c r="A19" s="89" t="s">
         <v>131</v>
       </c>
@@ -49902,7 +49931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18">
+    <row r="20" spans="1:17" ht="17.649999999999999">
       <c r="A20" s="89" t="s">
         <v>133</v>
       </c>
@@ -49920,7 +49949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18">
+    <row r="21" spans="1:17" ht="17.649999999999999">
       <c r="A21" s="89" t="s">
         <v>135</v>
       </c>
@@ -49958,7 +49987,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18">
+    <row r="22" spans="1:17" ht="17.649999999999999">
       <c r="A22" s="89"/>
       <c r="B22" s="89"/>
       <c r="C22" s="89"/>
@@ -49974,7 +50003,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18">
+    <row r="23" spans="1:17" ht="17.649999999999999">
       <c r="A23" s="92" t="s">
         <v>149</v>
       </c>
@@ -49992,7 +50021,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18">
+    <row r="24" spans="1:17" ht="17.649999999999999">
       <c r="A24" s="89" t="s">
         <v>150</v>
       </c>
@@ -50010,7 +50039,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18">
+    <row r="25" spans="1:17" ht="17.649999999999999">
       <c r="A25" s="94" t="s">
         <v>131</v>
       </c>
@@ -50028,7 +50057,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18">
+    <row r="26" spans="1:17" ht="17.649999999999999">
       <c r="A26" s="89" t="s">
         <v>133</v>
       </c>
@@ -50046,7 +50075,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18">
+    <row r="27" spans="1:17" ht="17.649999999999999">
       <c r="A27" s="89" t="s">
         <v>135</v>
       </c>
@@ -50064,7 +50093,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18">
+    <row r="28" spans="1:17" ht="17.649999999999999">
       <c r="A28" s="91" t="s">
         <v>154</v>
       </c>
@@ -50082,7 +50111,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18">
+    <row r="29" spans="1:17" ht="17.649999999999999">
       <c r="A29" s="89" t="s">
         <v>131</v>
       </c>
@@ -50100,7 +50129,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18">
+    <row r="30" spans="1:17" ht="17.649999999999999">
       <c r="A30" s="89" t="s">
         <v>133</v>
       </c>
@@ -50116,7 +50145,7 @@
       <c r="K30" s="89"/>
       <c r="Q30" s="87"/>
     </row>
-    <row r="31" spans="1:17" ht="18">
+    <row r="31" spans="1:17" ht="17.649999999999999">
       <c r="A31" s="89" t="s">
         <v>135</v>
       </c>
@@ -50132,7 +50161,7 @@
       <c r="K31" s="89"/>
       <c r="Q31" s="87"/>
     </row>
-    <row r="32" spans="1:17" ht="18">
+    <row r="32" spans="1:17" ht="17.649999999999999">
       <c r="A32" s="91" t="s">
         <v>158</v>
       </c>
@@ -50150,7 +50179,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18">
+    <row r="33" spans="1:17" ht="17.649999999999999">
       <c r="A33" s="89" t="s">
         <v>131</v>
       </c>
@@ -50168,7 +50197,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18">
+    <row r="34" spans="1:17" ht="17.649999999999999">
       <c r="A34" s="89" t="s">
         <v>133</v>
       </c>
@@ -50186,7 +50215,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18">
+    <row r="35" spans="1:17" ht="17.649999999999999">
       <c r="A35" s="89" t="s">
         <v>135</v>
       </c>
@@ -50220,7 +50249,7 @@
       <c r="K36" s="89"/>
       <c r="Q36" s="70"/>
     </row>
-    <row r="37" spans="1:17" ht="18">
+    <row r="37" spans="1:17" ht="17.649999999999999">
       <c r="A37" s="89" t="s">
         <v>131</v>
       </c>
@@ -50238,7 +50267,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18">
+    <row r="38" spans="1:17" ht="17.649999999999999">
       <c r="A38" s="89" t="s">
         <v>133</v>
       </c>
@@ -50256,7 +50285,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18">
+    <row r="39" spans="1:17" ht="17.649999999999999">
       <c r="A39" s="89" t="s">
         <v>135</v>
       </c>
@@ -50274,7 +50303,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18">
+    <row r="40" spans="1:17" ht="17.649999999999999">
       <c r="A40" s="91" t="s">
         <v>165</v>
       </c>
@@ -50292,7 +50321,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18">
+    <row r="41" spans="1:17" ht="17.649999999999999">
       <c r="A41" s="89" t="s">
         <v>131</v>
       </c>
@@ -50326,7 +50355,7 @@
       <c r="K42" s="89"/>
       <c r="Q42" s="70"/>
     </row>
-    <row r="43" spans="1:17" ht="18">
+    <row r="43" spans="1:17" ht="17.649999999999999">
       <c r="A43" s="89" t="s">
         <v>135</v>
       </c>
@@ -50344,7 +50373,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="18">
+    <row r="44" spans="1:17" ht="17.649999999999999">
       <c r="A44" s="91" t="s">
         <v>168</v>
       </c>
@@ -50362,7 +50391,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18">
+    <row r="45" spans="1:17" ht="17.649999999999999">
       <c r="A45" s="89" t="s">
         <v>131</v>
       </c>
@@ -50380,7 +50409,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18">
+    <row r="46" spans="1:17" ht="17.649999999999999">
       <c r="A46" s="89" t="s">
         <v>133</v>
       </c>
@@ -50410,23 +50439,25 @@
       <c r="G47" s="89"/>
       <c r="H47" s="89"/>
       <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
+      <c r="J47" s="89">
+        <v>58065</v>
+      </c>
       <c r="K47" s="89">
         <v>59572</v>
       </c>
       <c r="Q47" s="70"/>
     </row>
-    <row r="48" spans="1:17" ht="18">
+    <row r="48" spans="1:17" ht="17.649999999999999">
       <c r="Q48" s="87" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="18">
+    <row r="49" spans="1:17" ht="17.649999999999999">
       <c r="Q49" s="87" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="18">
+    <row r="50" spans="1:17" ht="17.649999999999999">
       <c r="Q50" s="87" t="s">
         <v>173</v>
       </c>
@@ -50472,12 +50503,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="32.1">
+    <row r="62" spans="1:17" ht="28.5">
       <c r="B62" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>181</v>
+      </c>
+      <c r="D62" t="s">
+        <v>648</v>
+      </c>
+      <c r="E62" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -50492,6 +50529,14 @@
         <f>K8*(B63/(B63+B64))</f>
         <v>538.41487721286558</v>
       </c>
+      <c r="D63">
+        <f>J21/B53</f>
+        <v>125.6</v>
+      </c>
+      <c r="E63">
+        <f>J8*(D63/(D63+D64))</f>
+        <v>566.33950878240034</v>
+      </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" t="s">
@@ -50505,47 +50550,75 @@
         <f>K8*((B64/(B63+B64)))</f>
         <v>2317.5851227871344</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D64">
+        <f>J47/B54</f>
+        <v>509.34210526315792</v>
+      </c>
+      <c r="E64">
+        <f>J8*((D64/(D63+D64)))</f>
+        <v>2296.6604912175994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="B69" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B70">
         <v>745</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B71">
         <v>1749</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B72">
         <v>1152</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C72">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="73" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="83" spans="1:3">
+      <c r="B83" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>189</v>
       </c>
@@ -50553,14 +50626,22 @@
         <f>C63+(SUM(B70:B72))</f>
         <v>4184.4148772128656</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <f>E63+SUM(C70:C72)</f>
+        <v>3478.3395087824001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B85" s="6">
         <f>C64</f>
         <v>2317.5851227871344</v>
+      </c>
+      <c r="C85">
+        <f>E64</f>
+        <v>2296.6604912175994</v>
       </c>
     </row>
   </sheetData>
@@ -50568,6 +50649,7 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{26EF448C-34CD-43B7-89E4-0F258AC8D74C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -50576,12 +50658,12 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" thickBot="1">
@@ -50589,7 +50671,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95" thickBot="1">
+    <row r="2" spans="1:7" ht="14.65" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="98" t="s">
         <v>192</v>
@@ -50740,7 +50822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.95" thickBot="1">
+    <row r="9" spans="1:7" ht="14.65" thickBot="1">
       <c r="A9" s="80" t="s">
         <v>135</v>
       </c>
@@ -50778,23 +50860,23 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="23.1">
+    <row r="16" spans="1:7" ht="22.9">
       <c r="B16" s="85"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="2:4" ht="23.1">
+    <row r="17" spans="2:4" ht="22.9">
       <c r="B17" s="84"/>
     </row>
-    <row r="18" spans="2:4" ht="23.1">
+    <row r="18" spans="2:4" ht="22.9">
       <c r="B18" s="84"/>
     </row>
-    <row r="19" spans="2:4" ht="23.1">
+    <row r="19" spans="2:4" ht="22.9">
       <c r="B19" s="84"/>
     </row>
-    <row r="20" spans="2:4" ht="23.1">
+    <row r="20" spans="2:4" ht="22.9">
       <c r="B20" s="84"/>
     </row>
-    <row r="21" spans="2:4" ht="23.1">
+    <row r="21" spans="2:4" ht="22.9">
       <c r="B21" s="85"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -50812,13 +50894,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF25D4-4F6F-4467-9DA6-CE7575DCD7B1}">
   <dimension ref="B2:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:22" ht="18">
+    <row r="2" spans="2:22" ht="17.649999999999999">
       <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
@@ -50867,7 +50949,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="2:22" ht="15.95">
+    <row r="4" spans="2:22" ht="15.4">
       <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
@@ -50891,7 +50973,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="2:22" ht="15.95">
+    <row r="5" spans="2:22" ht="15.4">
       <c r="B5" s="14" t="s">
         <v>203</v>
       </c>
@@ -52303,7 +52385,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
     </row>
-    <row r="35" spans="2:22">
+    <row r="35" spans="2:22" ht="14.65">
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
         <v>213</v>
@@ -52366,7 +52448,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="36" spans="2:22">
+    <row r="36" spans="2:22" ht="15">
       <c r="B36" s="13"/>
       <c r="C36" s="25" t="s">
         <v>214</v>
@@ -53453,7 +53535,7 @@
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
     </row>
-    <row r="57" spans="2:22" ht="99.95">
+    <row r="57" spans="2:22" ht="106.5">
       <c r="B57" s="13"/>
       <c r="C57" s="19" t="s">
         <v>215</v>
@@ -53525,11 +53607,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981988A5-7B36-4947-AA41-3D33453ED38A}">
   <dimension ref="B2:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:23">
       <c r="B2" s="13"/>
@@ -53555,7 +53637,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="2:23" ht="18">
+    <row r="3" spans="2:23" ht="17.649999999999999">
       <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
@@ -53606,7 +53688,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
     </row>
-    <row r="5" spans="2:23" ht="15.95">
+    <row r="5" spans="2:23" ht="15.4">
       <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
@@ -53631,7 +53713,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="2:23" ht="15.95">
+    <row r="6" spans="2:23" ht="15.4">
       <c r="B6" s="14" t="s">
         <v>216</v>
       </c>
@@ -54945,7 +55027,7 @@
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
     </row>
-    <row r="34" spans="2:23">
+    <row r="34" spans="2:23" ht="14.65">
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
         <v>218</v>
@@ -55009,7 +55091,7 @@
       </c>
       <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="2:23">
+    <row r="35" spans="2:23" ht="15">
       <c r="B35" s="13"/>
       <c r="C35" s="25" t="s">
         <v>214</v>
@@ -55995,15 +56077,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -56027,7 +56100,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -56273,14 +56346,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B880F57-318B-415D-9293-8F1EFC390ADC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058E23EF-3D90-4B93-86C7-1785D5F5FEB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058E23EF-3D90-4B93-86C7-1785D5F5FEB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0109C46A-9D09-49D1-8BD9-B7BE2C9E889A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0109C46A-9D09-49D1-8BD9-B7BE2C9E889A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B880F57-318B-415D-9293-8F1EFC390ADC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25524"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/SYVbT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="812" documentId="11_7630BD2150AEA4A6A03A16081019FEB42C6D9DFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52439C2D-0AB0-4EC2-BAFB-3240A7993D6A}"/>
+  <xr:revisionPtr revIDLastSave="869" documentId="11_7630BD2150AEA4A6A03A16081019FEB42C6D9DFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{558F1B9A-6B30-442B-890A-BDE10543C070}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,11 +32,21 @@
     <sheet name="AEO 48 (Aircraft Stock)" sheetId="31" r:id="rId17"/>
     <sheet name="Passenger" sheetId="19" r:id="rId18"/>
     <sheet name="Freight" sheetId="20" r:id="rId19"/>
-    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId20"/>
-    <sheet name="SYVbT-freight" sheetId="4" r:id="rId21"/>
+    <sheet name="EPS 3.3.1 data" sheetId="34" r:id="rId20"/>
+    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId21"/>
+    <sheet name="SYVbT-freight" sheetId="4" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -63,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="653">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -734,6 +744,12 @@
     <t>locomotives by type</t>
   </si>
   <si>
+    <t xml:space="preserve">Trains by type (2018) </t>
+  </si>
+  <si>
+    <t>Locomotives by type (2018)</t>
+  </si>
+  <si>
     <t>passenger</t>
   </si>
   <si>
@@ -2560,10 +2576,13 @@
     <t>*Freight natural gas trucks are calculated based on total freight truck percentages because there are no Light duty natural gas trucks</t>
   </si>
   <si>
-    <t xml:space="preserve">Trains by type (2018) </t>
-  </si>
-  <si>
-    <t>Locomotives by type (2018)</t>
+    <t>PASSENGER</t>
+  </si>
+  <si>
+    <t>US to Canada pop. ratio</t>
+  </si>
+  <si>
+    <t>FREIGHT</t>
   </si>
 </sst>
 </file>
@@ -2571,13 +2590,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -3538,7 +3557,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -3573,28 +3592,28 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="6">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3683,7 +3702,7 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0">
@@ -3792,11 +3811,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3816,7 +3835,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3834,8 +3853,8 @@
     <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="140" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="140" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3854,7 +3873,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4132,6 +4151,123 @@
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FRA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AEO 39"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Misc"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AEO 36"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NTS 1-11"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AEO 48"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NRBS 40"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AEO 45"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AEO 49"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4464,9 +4600,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="73.1328125" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4782,7 +4918,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:22">
       <c r="B2" s="13"/>
@@ -4882,7 +5018,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.4">
       <c r="B6" s="14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5032,7 +5168,7 @@
     <row r="11" spans="2:22">
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D11" s="17">
         <v>362.3</v>
@@ -5095,7 +5231,7 @@
     <row r="12" spans="2:22">
       <c r="B12" s="13"/>
       <c r="C12" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -5120,7 +5256,7 @@
     <row r="13" spans="2:22">
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D13" s="13">
         <v>0</v>
@@ -5183,7 +5319,7 @@
     <row r="14" spans="2:22">
       <c r="B14" s="13"/>
       <c r="C14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D14" s="13">
         <v>351.4</v>
@@ -5246,7 +5382,7 @@
     <row r="15" spans="2:22">
       <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" s="13">
         <v>9.1999999999999993</v>
@@ -5309,7 +5445,7 @@
     <row r="16" spans="2:22">
       <c r="B16" s="13"/>
       <c r="C16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -5372,7 +5508,7 @@
     <row r="17" spans="2:22">
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -5435,7 +5571,7 @@
     <row r="18" spans="2:22">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D18" s="13">
         <v>1.7</v>
@@ -5546,7 +5682,7 @@
     <row r="21" spans="2:22">
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D21" s="13">
         <v>0</v>
@@ -5609,7 +5745,7 @@
     <row r="22" spans="2:22">
       <c r="B22" s="13"/>
       <c r="C22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D22" s="13">
         <v>97</v>
@@ -5672,7 +5808,7 @@
     <row r="23" spans="2:22">
       <c r="B23" s="13"/>
       <c r="C23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D23" s="13">
         <v>2.5</v>
@@ -5735,7 +5871,7 @@
     <row r="24" spans="2:22">
       <c r="B24" s="13"/>
       <c r="C24" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
@@ -5798,7 +5934,7 @@
     <row r="25" spans="2:22">
       <c r="B25" s="13"/>
       <c r="C25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -5861,7 +5997,7 @@
     <row r="26" spans="2:22">
       <c r="B26" s="13"/>
       <c r="C26" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D26" s="13">
         <v>0.5</v>
@@ -6167,7 +6303,7 @@
     <row r="34" spans="2:22" ht="80.25">
       <c r="B34" s="17"/>
       <c r="C34" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D34" s="17">
         <v>25.6</v>
@@ -6230,7 +6366,7 @@
     <row r="35" spans="2:22" ht="15">
       <c r="B35" s="13"/>
       <c r="C35" s="25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -6255,7 +6391,7 @@
     <row r="36" spans="2:22">
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D36" s="13">
         <v>0</v>
@@ -6318,7 +6454,7 @@
     <row r="37" spans="2:22">
       <c r="B37" s="13"/>
       <c r="C37" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D37" s="13">
         <v>24.8</v>
@@ -6381,7 +6517,7 @@
     <row r="38" spans="2:22">
       <c r="B38" s="13"/>
       <c r="C38" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D38" s="13">
         <v>0.7</v>
@@ -6444,7 +6580,7 @@
     <row r="39" spans="2:22">
       <c r="B39" s="13"/>
       <c r="C39" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D39" s="13">
         <v>0</v>
@@ -6507,7 +6643,7 @@
     <row r="40" spans="2:22">
       <c r="B40" s="13"/>
       <c r="C40" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D40" s="13">
         <v>0</v>
@@ -6570,7 +6706,7 @@
     <row r="41" spans="2:22">
       <c r="B41" s="13"/>
       <c r="C41" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D41" s="13">
         <v>0.1</v>
@@ -6681,7 +6817,7 @@
     <row r="44" spans="2:22">
       <c r="B44" s="13"/>
       <c r="C44" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D44" s="13">
         <v>0</v>
@@ -6744,7 +6880,7 @@
     <row r="45" spans="2:22">
       <c r="B45" s="13"/>
       <c r="C45" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D45" s="13">
         <v>97</v>
@@ -6807,7 +6943,7 @@
     <row r="46" spans="2:22">
       <c r="B46" s="13"/>
       <c r="C46" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D46" s="13">
         <v>2.6</v>
@@ -6870,7 +7006,7 @@
     <row r="47" spans="2:22">
       <c r="B47" s="13"/>
       <c r="C47" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
@@ -6933,7 +7069,7 @@
     <row r="48" spans="2:22">
       <c r="B48" s="13"/>
       <c r="C48" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D48" s="13">
         <v>0</v>
@@ -6996,7 +7132,7 @@
     <row r="49" spans="2:22">
       <c r="B49" s="13"/>
       <c r="C49" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D49" s="13">
         <v>0.4</v>
@@ -7178,7 +7314,7 @@
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:21" ht="17.649999999999999">
       <c r="A2" s="12" t="s">
@@ -7257,7 +7393,7 @@
     </row>
     <row r="5" spans="1:21" ht="15.4">
       <c r="A5" s="14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -7413,7 +7549,7 @@
     <row r="10" spans="1:21">
       <c r="A10" s="17"/>
       <c r="B10" s="52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C10" s="41">
         <v>145.80000000000001</v>
@@ -7476,7 +7612,7 @@
     <row r="11" spans="1:21">
       <c r="A11" s="50"/>
       <c r="B11" s="42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -7501,7 +7637,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="50"/>
       <c r="B12" s="55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C12" s="53">
         <v>0.1</v>
@@ -7564,7 +7700,7 @@
     <row r="13" spans="1:21">
       <c r="A13" s="50"/>
       <c r="B13" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C13" s="53">
         <v>134.19999999999999</v>
@@ -7627,7 +7763,7 @@
     <row r="14" spans="1:21">
       <c r="A14" s="50"/>
       <c r="B14" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C14" s="53">
         <v>3.9</v>
@@ -7690,7 +7826,7 @@
     <row r="15" spans="1:21">
       <c r="A15" s="50"/>
       <c r="B15" s="44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C15" s="53">
         <v>0</v>
@@ -7753,7 +7889,7 @@
     <row r="16" spans="1:21">
       <c r="A16" s="50"/>
       <c r="B16" s="44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C16" s="53">
         <v>0</v>
@@ -7816,7 +7952,7 @@
     <row r="17" spans="1:21">
       <c r="A17" s="50"/>
       <c r="B17" s="44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" s="53">
         <v>7.7</v>
@@ -7927,7 +8063,7 @@
     <row r="20" spans="1:21">
       <c r="A20" s="50"/>
       <c r="B20" s="55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" s="53">
         <v>0</v>
@@ -7990,7 +8126,7 @@
     <row r="21" spans="1:21">
       <c r="A21" s="50"/>
       <c r="B21" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C21" s="53">
         <v>92</v>
@@ -8053,7 +8189,7 @@
     <row r="22" spans="1:21">
       <c r="A22" s="50"/>
       <c r="B22" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C22" s="53">
         <v>2.7</v>
@@ -8116,7 +8252,7 @@
     <row r="23" spans="1:21">
       <c r="A23" s="50"/>
       <c r="B23" s="44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C23" s="53">
         <v>0</v>
@@ -8179,7 +8315,7 @@
     <row r="24" spans="1:21">
       <c r="A24" s="50"/>
       <c r="B24" s="44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C24" s="53">
         <v>0</v>
@@ -8242,7 +8378,7 @@
     <row r="25" spans="1:21">
       <c r="A25" s="50"/>
       <c r="B25" s="44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C25" s="53">
         <v>5.3</v>
@@ -8328,7 +8464,7 @@
     <row r="27" spans="1:21">
       <c r="A27" s="50"/>
       <c r="B27" s="56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -8353,7 +8489,7 @@
     <row r="28" spans="1:21">
       <c r="A28" s="50"/>
       <c r="B28" s="57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C28" s="58">
         <v>17540</v>
@@ -8439,7 +8575,7 @@
     <row r="30" spans="1:21">
       <c r="A30" s="17"/>
       <c r="B30" s="60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C30" s="49">
         <v>8.31</v>
@@ -8548,7 +8684,7 @@
     <row r="33" spans="1:21" ht="14.65">
       <c r="A33" s="17"/>
       <c r="B33" s="52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C33" s="41">
         <v>10.199999999999999</v>
@@ -8611,7 +8747,7 @@
     <row r="34" spans="1:21" ht="15">
       <c r="A34" s="50"/>
       <c r="B34" s="46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -8636,7 +8772,7 @@
     <row r="35" spans="1:21">
       <c r="A35" s="50"/>
       <c r="B35" s="55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C35" s="53">
         <v>0</v>
@@ -8699,7 +8835,7 @@
     <row r="36" spans="1:21">
       <c r="A36" s="50"/>
       <c r="B36" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C36" s="53">
         <v>9.5</v>
@@ -8762,7 +8898,7 @@
     <row r="37" spans="1:21">
       <c r="A37" s="50"/>
       <c r="B37" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C37" s="53">
         <v>0.3</v>
@@ -8825,7 +8961,7 @@
     <row r="38" spans="1:21">
       <c r="A38" s="50"/>
       <c r="B38" s="44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C38" s="53">
         <v>0</v>
@@ -8888,7 +9024,7 @@
     <row r="39" spans="1:21">
       <c r="A39" s="50"/>
       <c r="B39" s="44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C39" s="53">
         <v>0</v>
@@ -8951,7 +9087,7 @@
     <row r="40" spans="1:21">
       <c r="A40" s="50"/>
       <c r="B40" s="44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C40" s="53">
         <v>0.5</v>
@@ -9062,7 +9198,7 @@
     <row r="43" spans="1:21">
       <c r="A43" s="50"/>
       <c r="B43" s="55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C43" s="53">
         <v>0</v>
@@ -9125,7 +9261,7 @@
     <row r="44" spans="1:21">
       <c r="A44" s="50"/>
       <c r="B44" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C44" s="53">
         <v>92.7</v>
@@ -9188,7 +9324,7 @@
     <row r="45" spans="1:21">
       <c r="A45" s="50"/>
       <c r="B45" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C45" s="53">
         <v>2.7</v>
@@ -9251,7 +9387,7 @@
     <row r="46" spans="1:21">
       <c r="A46" s="50"/>
       <c r="B46" s="44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C46" s="53">
         <v>0</v>
@@ -9314,7 +9450,7 @@
     <row r="47" spans="1:21">
       <c r="A47" s="50"/>
       <c r="B47" s="44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C47" s="53">
         <v>0</v>
@@ -9377,7 +9513,7 @@
     <row r="48" spans="1:21">
       <c r="A48" s="50"/>
       <c r="B48" s="44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C48" s="53">
         <v>4.5999999999999996</v>
@@ -9536,7 +9672,7 @@
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17.649999999999999">
       <c r="A1" s="12" t="s">
@@ -9572,7 +9708,7 @@
     </row>
     <row r="4" spans="1:21" ht="15.4">
       <c r="A4" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="40"/>
@@ -9641,7 +9777,7 @@
     <row r="9" spans="1:21">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C9" s="41">
         <v>157.09872999999999</v>
@@ -9703,7 +9839,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="B10" s="42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -9727,7 +9863,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C11" s="43">
         <v>95.294904000000002</v>
@@ -9789,7 +9925,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C12" s="43">
         <v>60.983248000000003</v>
@@ -9851,7 +9987,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C13" s="43">
         <v>0</v>
@@ -9913,7 +10049,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C14" s="43">
         <v>0</v>
@@ -10021,7 +10157,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="B17" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C17" s="43">
         <v>60.659244999999999</v>
@@ -10084,7 +10220,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="B18" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" s="43">
         <v>38.818421999999998</v>
@@ -10146,7 +10282,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="B19" s="44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C19" s="43">
         <v>0</v>
@@ -10208,7 +10344,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="B20" s="44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C20" s="43">
         <v>0</v>
@@ -10275,7 +10411,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="B23" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C23" s="4">
         <v>20135.507351</v>
@@ -10338,7 +10474,7 @@
     <row r="25" spans="1:22">
       <c r="A25" s="17"/>
       <c r="B25" s="47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C25" s="49">
         <v>7.8020750000000003</v>
@@ -10401,7 +10537,7 @@
     <row r="28" spans="1:22" ht="14.65">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="41">
         <v>10.769121</v>
@@ -10463,7 +10599,7 @@
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="B29" s="46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -10487,7 +10623,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C30" s="43">
         <v>6.3913640000000003</v>
@@ -10549,7 +10685,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="B31" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C31" s="43">
         <v>4.3282429999999996</v>
@@ -10611,7 +10747,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="B32" s="44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C32" s="43">
         <v>0</v>
@@ -10673,7 +10809,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="B33" s="44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C33" s="43">
         <v>0</v>
@@ -10781,7 +10917,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="B36" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C36" s="43">
         <v>59.348985999999996</v>
@@ -10843,7 +10979,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="B37" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C37" s="43">
         <v>40.191240000000001</v>
@@ -10905,7 +11041,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="B38" s="44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C38" s="43">
         <v>0</v>
@@ -10967,7 +11103,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="B39" s="44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C39" s="43">
         <v>0</v>
@@ -11124,7 +11260,7 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17.649999999999999">
       <c r="A1" s="12" t="s">
@@ -11160,7 +11296,7 @@
     </row>
     <row r="4" spans="1:21" ht="15.4">
       <c r="A4" s="14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="40"/>
@@ -11229,7 +11365,7 @@
     <row r="9" spans="1:21" ht="15.4">
       <c r="A9" s="17"/>
       <c r="B9" s="52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C9" s="41">
         <v>408.18575800000002</v>
@@ -12609,7 +12745,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="B35" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C35" s="4">
         <v>202452.56170200001</v>
@@ -12675,7 +12811,7 @@
     <row r="37" spans="1:21">
       <c r="A37" s="17"/>
       <c r="B37" s="67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C37" s="49">
         <v>2.0162040000000001</v>
@@ -12764,7 +12900,7 @@
     <row r="40" spans="1:21" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C40" s="41">
         <v>28.970697999999999</v>
@@ -14245,7 +14381,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -14261,7 +14397,7 @@
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" s="13"/>
@@ -14365,7 +14501,7 @@
     </row>
     <row r="6" spans="2:24" ht="15.4">
       <c r="B6" s="14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -14521,7 +14657,7 @@
     <row r="11" spans="2:24">
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D11" s="17">
         <v>711.1</v>
@@ -14585,7 +14721,7 @@
     <row r="12" spans="2:24">
       <c r="B12" s="13"/>
       <c r="C12" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -14611,7 +14747,7 @@
     <row r="13" spans="2:24">
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D13" s="13">
         <v>0.1</v>
@@ -14676,7 +14812,7 @@
     <row r="14" spans="2:24">
       <c r="B14" s="13"/>
       <c r="C14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D14" s="13">
         <v>229.4</v>
@@ -14740,7 +14876,7 @@
     <row r="15" spans="2:24">
       <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" s="13">
         <v>473.1</v>
@@ -14804,7 +14940,7 @@
     <row r="16" spans="2:24">
       <c r="B16" s="13"/>
       <c r="C16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -14868,7 +15004,7 @@
     <row r="17" spans="2:23">
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -14932,7 +15068,7 @@
     <row r="18" spans="2:23">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D18" s="13">
         <v>8.5</v>
@@ -15046,7 +15182,7 @@
     <row r="21" spans="2:23">
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D21" s="13">
         <v>0</v>
@@ -15110,7 +15246,7 @@
     <row r="22" spans="2:23">
       <c r="B22" s="13"/>
       <c r="C22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D22" s="13">
         <v>32.299999999999997</v>
@@ -15174,7 +15310,7 @@
     <row r="23" spans="2:23">
       <c r="B23" s="13"/>
       <c r="C23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D23" s="13">
         <v>66.5</v>
@@ -15238,7 +15374,7 @@
     <row r="24" spans="2:23">
       <c r="B24" s="13"/>
       <c r="C24" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
@@ -15302,7 +15438,7 @@
     <row r="25" spans="2:23">
       <c r="B25" s="13"/>
       <c r="C25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -15366,7 +15502,7 @@
     <row r="26" spans="2:23">
       <c r="B26" s="13"/>
       <c r="C26" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D26" s="13">
         <v>1.2</v>
@@ -15480,7 +15616,7 @@
     <row r="29" spans="2:23">
       <c r="B29" s="13"/>
       <c r="C29" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D29" s="18">
         <v>240128</v>
@@ -15568,7 +15704,7 @@
     <row r="31" spans="2:23">
       <c r="B31" s="16"/>
       <c r="C31" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D31" s="17">
         <v>2.96</v>
@@ -15680,7 +15816,7 @@
     <row r="34" spans="2:23" ht="14.65">
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D34" s="17">
         <v>50</v>
@@ -15744,7 +15880,7 @@
     <row r="35" spans="2:23" ht="15">
       <c r="B35" s="13"/>
       <c r="C35" s="25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -15770,7 +15906,7 @@
     <row r="36" spans="2:23">
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D36" s="13">
         <v>0</v>
@@ -15834,7 +15970,7 @@
     <row r="37" spans="2:23">
       <c r="B37" s="13"/>
       <c r="C37" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D37" s="13">
         <v>15.9</v>
@@ -15898,7 +16034,7 @@
     <row r="38" spans="2:23">
       <c r="B38" s="13"/>
       <c r="C38" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D38" s="13">
         <v>33.6</v>
@@ -15962,7 +16098,7 @@
     <row r="39" spans="2:23">
       <c r="B39" s="13"/>
       <c r="C39" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D39" s="13">
         <v>0</v>
@@ -16026,7 +16162,7 @@
     <row r="40" spans="2:23">
       <c r="B40" s="13"/>
       <c r="C40" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D40" s="13">
         <v>0</v>
@@ -16090,7 +16226,7 @@
     <row r="41" spans="2:23">
       <c r="B41" s="13"/>
       <c r="C41" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D41" s="13">
         <v>0.5</v>
@@ -16204,7 +16340,7 @@
     <row r="44" spans="2:23">
       <c r="B44" s="13"/>
       <c r="C44" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D44" s="13">
         <v>0</v>
@@ -16268,7 +16404,7 @@
     <row r="45" spans="2:23">
       <c r="B45" s="13"/>
       <c r="C45" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D45" s="13">
         <v>31.8</v>
@@ -16332,7 +16468,7 @@
     <row r="46" spans="2:23">
       <c r="B46" s="13"/>
       <c r="C46" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D46" s="13">
         <v>67.2</v>
@@ -16396,7 +16532,7 @@
     <row r="47" spans="2:23">
       <c r="B47" s="13"/>
       <c r="C47" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
@@ -16460,7 +16596,7 @@
     <row r="48" spans="2:23">
       <c r="B48" s="13"/>
       <c r="C48" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D48" s="13">
         <v>0</v>
@@ -16524,7 +16660,7 @@
     <row r="49" spans="2:23">
       <c r="B49" s="13"/>
       <c r="C49" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
@@ -16710,7 +16846,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:21" ht="17.649999999999999">
       <c r="A2" s="12" t="s">
@@ -16789,7 +16925,7 @@
     </row>
     <row r="5" spans="1:21" ht="15.4">
       <c r="A5" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -16945,7 +17081,7 @@
     <row r="10" spans="1:21" ht="54.75">
       <c r="A10" s="17"/>
       <c r="B10" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C10" s="41">
         <v>108.2</v>
@@ -17008,7 +17144,7 @@
     <row r="11" spans="1:21">
       <c r="A11" s="50"/>
       <c r="B11" s="42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -17033,7 +17169,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="50"/>
       <c r="B12" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C12" s="53">
         <v>46.8</v>
@@ -17096,7 +17232,7 @@
     <row r="13" spans="1:21">
       <c r="A13" s="50"/>
       <c r="B13" s="44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C13" s="53">
         <v>61.4</v>
@@ -17207,7 +17343,7 @@
     <row r="16" spans="1:21">
       <c r="A16" s="50"/>
       <c r="B16" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C16" s="53">
         <v>43.3</v>
@@ -17270,7 +17406,7 @@
     <row r="17" spans="1:21">
       <c r="A17" s="50"/>
       <c r="B17" s="44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C17" s="53">
         <v>56.7</v>
@@ -17381,7 +17517,7 @@
     <row r="20" spans="1:21">
       <c r="A20" s="50"/>
       <c r="B20" s="57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C20" s="58">
         <v>210499</v>
@@ -17467,7 +17603,7 @@
     <row r="22" spans="1:21">
       <c r="A22" s="17"/>
       <c r="B22" s="56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C22" s="49">
         <v>0.51</v>
@@ -17576,7 +17712,7 @@
     <row r="25" spans="1:21" ht="69">
       <c r="A25" s="17"/>
       <c r="B25" s="64" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C25" s="41">
         <v>7.9</v>
@@ -17639,7 +17775,7 @@
     <row r="26" spans="1:21" ht="15">
       <c r="A26" s="50"/>
       <c r="B26" s="46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
@@ -17664,7 +17800,7 @@
     <row r="27" spans="1:21">
       <c r="A27" s="50"/>
       <c r="B27" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C27" s="53">
         <v>3.3</v>
@@ -17727,7 +17863,7 @@
     <row r="28" spans="1:21">
       <c r="A28" s="50"/>
       <c r="B28" s="44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C28" s="53">
         <v>4.5999999999999996</v>
@@ -17838,7 +17974,7 @@
     <row r="31" spans="1:21">
       <c r="A31" s="50"/>
       <c r="B31" s="44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C31" s="53">
         <v>41.8</v>
@@ -17901,7 +18037,7 @@
     <row r="32" spans="1:21">
       <c r="A32" s="50"/>
       <c r="B32" s="44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C32" s="53">
         <v>58.2</v>
@@ -18072,7 +18208,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="65" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -18108,7 +18244,7 @@
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:21" ht="17.649999999999999">
       <c r="A2" s="12" t="s">
@@ -18144,7 +18280,7 @@
     </row>
     <row r="5" spans="1:21" ht="15.4">
       <c r="A5" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="40"/>
@@ -18229,7 +18365,7 @@
     <row r="10" spans="1:21" ht="52.9">
       <c r="A10" s="17"/>
       <c r="B10" s="19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C10" s="41">
         <v>8.0989020000000007</v>
@@ -18291,7 +18427,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -18315,7 +18451,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C12" s="43">
         <v>2.9943999999999998E-2</v>
@@ -18377,7 +18513,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C13" s="43">
         <v>8.0689580000000003</v>
@@ -18485,7 +18621,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="B16" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C16" s="43">
         <v>0.36972899999999997</v>
@@ -18547,7 +18683,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="B17" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C17" s="43">
         <v>99.630270999999993</v>
@@ -18614,7 +18750,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="B20" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C20" s="4">
         <v>2327.3020000000001</v>
@@ -18677,7 +18813,7 @@
     <row r="22" spans="1:21" ht="39.75">
       <c r="A22" s="17"/>
       <c r="B22" s="63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C22" s="49">
         <v>3.4799530000000001</v>
@@ -18763,7 +18899,7 @@
     <row r="25" spans="1:21" ht="67.150000000000006">
       <c r="A25" s="17"/>
       <c r="B25" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C25" s="41">
         <v>0.55935299999999999</v>
@@ -18825,7 +18961,7 @@
     </row>
     <row r="26" spans="1:21" ht="15">
       <c r="B26" s="46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -18849,7 +18985,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="B27" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C27" s="43">
         <v>2.2230000000000001E-3</v>
@@ -18911,7 +19047,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="B28" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C28" s="43">
         <v>0.55713000000000001</v>
@@ -19019,7 +19155,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="B31" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C31" s="43">
         <v>0.39739400000000002</v>
@@ -19081,7 +19217,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="B32" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C32" s="43">
         <v>99.602605999999994</v>
@@ -19259,7 +19395,7 @@
     </row>
     <row r="42" spans="1:21" ht="15.4">
       <c r="A42" s="14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="40"/>
@@ -19344,7 +19480,7 @@
     <row r="47" spans="1:21" ht="66">
       <c r="A47" s="17"/>
       <c r="B47" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C47" s="41">
         <v>231.97009800000001</v>
@@ -19406,7 +19542,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="B48" s="42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -19430,7 +19566,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="B49" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C49" s="43">
         <v>3.539056</v>
@@ -19492,7 +19628,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="B50" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C50" s="43">
         <v>228.43104199999999</v>
@@ -19600,7 +19736,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="B53" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C53" s="43">
         <v>1.525652</v>
@@ -19662,7 +19798,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="B54" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C54" s="43">
         <v>98.474348000000006</v>
@@ -19729,7 +19865,7 @@
     </row>
     <row r="57" spans="1:21" ht="15">
       <c r="B57" s="48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C57" s="4">
         <v>104881.671</v>
@@ -19792,7 +19928,7 @@
     <row r="59" spans="1:21" ht="41.65">
       <c r="A59" s="17"/>
       <c r="B59" s="63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C59" s="49">
         <v>1.954871</v>
@@ -19878,7 +20014,7 @@
     <row r="62" spans="1:21" ht="80.25">
       <c r="A62" s="17"/>
       <c r="B62" s="19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C62" s="41">
         <v>16.034976</v>
@@ -19940,7 +20076,7 @@
     </row>
     <row r="63" spans="1:21" ht="15">
       <c r="B63" s="46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
@@ -19964,7 +20100,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="B64" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C64" s="43">
         <v>0.26271499999999998</v>
@@ -20026,7 +20162,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="B65" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C65" s="43">
         <v>15.772261</v>
@@ -20134,7 +20270,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="B68" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C68" s="43">
         <v>1.6383859999999999</v>
@@ -20196,7 +20332,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="B69" s="54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C69" s="43">
         <v>98.361614000000003</v>
@@ -20342,7 +20478,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -20358,15 +20494,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" customWidth="1"/>
-    <col min="2" max="2" width="53.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -20376,23 +20512,23 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="B5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -20491,29 +20627,29 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E7">
         <v>9017.7021480000003</v>
@@ -20617,16 +20753,16 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E8">
         <v>4765.935547</v>
@@ -20730,16 +20866,16 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E9">
         <v>1211.643311</v>
@@ -20843,16 +20979,16 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E10">
         <v>3040.123047</v>
@@ -20959,13 +21095,13 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E11">
         <v>965.68420400000002</v>
@@ -21069,16 +21205,16 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E12">
         <v>355.52121</v>
@@ -21182,16 +21318,16 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E13">
         <v>140.91111799999999</v>
@@ -21295,16 +21431,16 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E14">
         <v>469.25186200000002</v>
@@ -21408,16 +21544,16 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E15">
         <v>884.27136199999995</v>
@@ -21521,16 +21657,16 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E16">
         <v>520.07006799999999</v>
@@ -21634,16 +21770,16 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E17">
         <v>52.574126999999997</v>
@@ -21747,16 +21883,16 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E18">
         <v>311.62719700000002</v>
@@ -21860,16 +21996,16 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E19">
         <v>1600.9001459999999</v>
@@ -21973,16 +22109,16 @@
     </row>
     <row r="20" spans="1:37">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E20">
         <v>926.48419200000001</v>
@@ -22086,16 +22222,16 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E21">
         <v>202.98152200000001</v>
@@ -22199,16 +22335,16 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E22">
         <v>471.43438700000002</v>
@@ -22312,16 +22448,16 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E23">
         <v>6947.4467770000001</v>
@@ -22425,16 +22561,16 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E24">
         <v>4046.6586910000001</v>
@@ -22538,16 +22674,16 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E25">
         <v>1295.179077</v>
@@ -22651,16 +22787,16 @@
     </row>
     <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E26">
         <v>1605.609009</v>
@@ -22764,16 +22900,16 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E27">
         <v>1379.3229980000001</v>
@@ -22877,16 +23013,16 @@
     </row>
     <row r="28" spans="1:37">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E28">
         <v>606.92608600000005</v>
@@ -22990,16 +23126,16 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E29">
         <v>234.10734600000001</v>
@@ -23103,16 +23239,16 @@
     </row>
     <row r="30" spans="1:37">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E30">
         <v>538.28949</v>
@@ -23216,16 +23352,16 @@
     </row>
     <row r="31" spans="1:37">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E31">
         <v>2112.6477049999999</v>
@@ -23329,16 +23465,16 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E32">
         <v>873.03411900000003</v>
@@ -23442,16 +23578,16 @@
     </row>
     <row r="33" spans="1:37">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E33">
         <v>1016.496521</v>
@@ -23555,16 +23691,16 @@
     </row>
     <row r="34" spans="1:37">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D34" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E34">
         <v>223.11705000000001</v>
@@ -23668,16 +23804,16 @@
     </row>
     <row r="35" spans="1:37">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E35">
         <v>1688.3538820000001</v>
@@ -23781,16 +23917,16 @@
     </row>
     <row r="36" spans="1:37">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E36">
         <v>1042.8481449999999</v>
@@ -23894,16 +24030,16 @@
     </row>
     <row r="37" spans="1:37">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D37" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E37">
         <v>218.97323600000001</v>
@@ -24007,16 +24143,16 @@
     </row>
     <row r="38" spans="1:37">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D38" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E38">
         <v>426.53250100000002</v>
@@ -24120,16 +24256,16 @@
     </row>
     <row r="39" spans="1:37">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E39">
         <v>4652.0673829999996</v>
@@ -24233,16 +24369,16 @@
     </row>
     <row r="40" spans="1:37">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C40" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E40">
         <v>3577.360107</v>
@@ -24346,16 +24482,16 @@
     </row>
     <row r="41" spans="1:37">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E41">
         <v>787.495544</v>
@@ -24459,16 +24595,16 @@
     </row>
     <row r="42" spans="1:37">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C42" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E42">
         <v>287.211975</v>
@@ -24572,16 +24708,16 @@
     </row>
     <row r="43" spans="1:37">
       <c r="A43" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C43" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E43">
         <v>1206.746582</v>
@@ -24685,16 +24821,16 @@
     </row>
     <row r="44" spans="1:37">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E44">
         <v>535.76355000000001</v>
@@ -24798,16 +24934,16 @@
     </row>
     <row r="45" spans="1:37">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B45" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C45" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E45">
         <v>550.05743399999994</v>
@@ -24911,16 +25047,16 @@
     </row>
     <row r="46" spans="1:37">
       <c r="A46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C46" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E46">
         <v>120.925545</v>
@@ -25024,16 +25160,16 @@
     </row>
     <row r="47" spans="1:37">
       <c r="A47" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C47" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E47">
         <v>2907.726807</v>
@@ -25137,16 +25273,16 @@
     </row>
     <row r="48" spans="1:37">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B48" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E48">
         <v>1648.9857179999999</v>
@@ -25250,16 +25386,16 @@
     </row>
     <row r="49" spans="1:37">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E49">
         <v>721.82281499999999</v>
@@ -25363,16 +25499,16 @@
     </row>
     <row r="50" spans="1:37">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C50" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D50" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E50">
         <v>536.91815199999996</v>
@@ -25476,16 +25612,16 @@
     </row>
     <row r="51" spans="1:37">
       <c r="A51" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E51">
         <v>917.00402799999995</v>
@@ -25589,16 +25725,16 @@
     </row>
     <row r="52" spans="1:37">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E52">
         <v>616.62622099999999</v>
@@ -25702,16 +25838,16 @@
     </row>
     <row r="53" spans="1:37">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E53">
         <v>159.28207399999999</v>
@@ -25815,16 +25951,16 @@
     </row>
     <row r="54" spans="1:37">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B54" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C54" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E54">
         <v>141.09570299999999</v>
@@ -25928,16 +26064,16 @@
     </row>
     <row r="55" spans="1:37">
       <c r="A55" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C55" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E55">
         <v>885.99249299999997</v>
@@ -26041,16 +26177,16 @@
     </row>
     <row r="56" spans="1:37">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C56" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E56">
         <v>344.029877</v>
@@ -26154,16 +26290,16 @@
     </row>
     <row r="57" spans="1:37">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E57">
         <v>137.36389199999999</v>
@@ -26267,16 +26403,16 @@
     </row>
     <row r="58" spans="1:37">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B58" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C58" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E58">
         <v>404.598724</v>
@@ -26380,16 +26516,16 @@
     </row>
     <row r="59" spans="1:37">
       <c r="A59" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C59" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E59">
         <v>35165.867187999997</v>
@@ -26493,24 +26629,24 @@
     </row>
     <row r="60" spans="1:37">
       <c r="A60" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:37">
       <c r="A61" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B61" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E61">
         <v>7149.0898440000001</v>
@@ -26614,16 +26750,16 @@
     </row>
     <row r="62" spans="1:37">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C62" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E62">
         <v>4129.2944340000004</v>
@@ -26727,16 +26863,16 @@
     </row>
     <row r="63" spans="1:37">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B63" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C63" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E63">
         <v>589.604919</v>
@@ -26840,16 +26976,16 @@
     </row>
     <row r="64" spans="1:37">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C64" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E64">
         <v>2430.1906739999999</v>
@@ -26956,13 +27092,13 @@
         <v>51</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E65" s="70">
         <v>856.37652600000001</v>
@@ -27066,16 +27202,16 @@
     </row>
     <row r="66" spans="1:37">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E66">
         <v>328.062164</v>
@@ -27179,16 +27315,16 @@
     </row>
     <row r="67" spans="1:37">
       <c r="A67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C67" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D67" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E67">
         <v>128.29904199999999</v>
@@ -27292,16 +27428,16 @@
     </row>
     <row r="68" spans="1:37">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C68" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D68" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E68">
         <v>400.01531999999997</v>
@@ -27405,16 +27541,16 @@
     </row>
     <row r="69" spans="1:37">
       <c r="A69" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B69" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E69">
         <v>794.45788600000003</v>
@@ -27518,16 +27654,16 @@
     </row>
     <row r="70" spans="1:37">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E70">
         <v>471.28247099999999</v>
@@ -27631,16 +27767,16 @@
     </row>
     <row r="71" spans="1:37">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C71" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E71">
         <v>43.849991000000003</v>
@@ -27744,16 +27880,16 @@
     </row>
     <row r="72" spans="1:37">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C72" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D72" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E72">
         <v>279.32540899999998</v>
@@ -27857,16 +27993,16 @@
     </row>
     <row r="73" spans="1:37">
       <c r="A73" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C73" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D73" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E73">
         <v>1397.778564</v>
@@ -27970,16 +28106,16 @@
     </row>
     <row r="74" spans="1:37">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D74" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E74">
         <v>832.27911400000005</v>
@@ -28083,16 +28219,16 @@
     </row>
     <row r="75" spans="1:37">
       <c r="A75" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D75" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E75">
         <v>168.342209</v>
@@ -28196,16 +28332,16 @@
     </row>
     <row r="76" spans="1:37">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C76" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E76">
         <v>397.15728799999999</v>
@@ -28309,16 +28445,16 @@
     </row>
     <row r="77" spans="1:37">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B77" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C77" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E77">
         <v>6162.7353519999997</v>
@@ -28422,16 +28558,16 @@
     </row>
     <row r="78" spans="1:37">
       <c r="A78" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E78">
         <v>3799.8933109999998</v>
@@ -28535,16 +28671,16 @@
     </row>
     <row r="79" spans="1:37">
       <c r="A79" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C79" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E79">
         <v>1028.027466</v>
@@ -28648,16 +28784,16 @@
     </row>
     <row r="80" spans="1:37">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C80" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E80">
         <v>1334.814453</v>
@@ -28761,16 +28897,16 @@
     </row>
     <row r="81" spans="1:37">
       <c r="A81" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C81" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E81">
         <v>1174.7423100000001</v>
@@ -28874,16 +29010,16 @@
     </row>
     <row r="82" spans="1:37">
       <c r="A82" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C82" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E82">
         <v>516.48785399999997</v>
@@ -28987,16 +29123,16 @@
     </row>
     <row r="83" spans="1:37">
       <c r="A83" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B83" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C83" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D83" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E83">
         <v>198.976776</v>
@@ -29100,16 +29236,16 @@
     </row>
     <row r="84" spans="1:37">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C84" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D84" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E84">
         <v>459.27773999999999</v>
@@ -29213,16 +29349,16 @@
     </row>
     <row r="85" spans="1:37">
       <c r="A85" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C85" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E85">
         <v>1905.7021480000001</v>
@@ -29326,16 +29462,16 @@
     </row>
     <row r="86" spans="1:37">
       <c r="A86" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C86" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E86">
         <v>803.206909</v>
@@ -29439,16 +29575,16 @@
     </row>
     <row r="87" spans="1:37">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E87">
         <v>899.12304700000004</v>
@@ -29552,16 +29688,16 @@
     </row>
     <row r="88" spans="1:37">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C88" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E88">
         <v>203.372162</v>
@@ -29665,16 +29801,16 @@
     </row>
     <row r="89" spans="1:37">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B89" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E89">
         <v>1263.356689</v>
@@ -29778,16 +29914,16 @@
     </row>
     <row r="90" spans="1:37">
       <c r="A90" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C90" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E90">
         <v>774.025757</v>
@@ -29891,16 +30027,16 @@
     </row>
     <row r="91" spans="1:37">
       <c r="A91" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C91" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D91" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E91">
         <v>145.63334699999999</v>
@@ -30004,16 +30140,16 @@
     </row>
     <row r="92" spans="1:37">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C92" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D92" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E92">
         <v>343.69754</v>
@@ -30117,16 +30253,16 @@
     </row>
     <row r="93" spans="1:37">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C93" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D93" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E93">
         <v>4422.9941410000001</v>
@@ -30230,16 +30366,16 @@
     </row>
     <row r="94" spans="1:37">
       <c r="A94" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B94" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C94" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D94" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E94">
         <v>3469.8801269999999</v>
@@ -30343,16 +30479,16 @@
     </row>
     <row r="95" spans="1:37">
       <c r="A95" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B95" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C95" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E95">
         <v>680.442139</v>
@@ -30456,16 +30592,16 @@
     </row>
     <row r="96" spans="1:37">
       <c r="A96" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C96" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E96">
         <v>272.671875</v>
@@ -30569,16 +30705,16 @@
     </row>
     <row r="97" spans="1:37">
       <c r="A97" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B97" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C97" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E97">
         <v>1123.5104980000001</v>
@@ -30682,16 +30818,16 @@
     </row>
     <row r="98" spans="1:37">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B98" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C98" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D98" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E98">
         <v>525.91564900000003</v>
@@ -30795,16 +30931,16 @@
     </row>
     <row r="99" spans="1:37">
       <c r="A99" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B99" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C99" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D99" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E99">
         <v>478.66931199999999</v>
@@ -30908,16 +31044,16 @@
     </row>
     <row r="100" spans="1:37">
       <c r="A100" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C100" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E100">
         <v>118.925545</v>
@@ -31021,16 +31157,16 @@
     </row>
     <row r="101" spans="1:37">
       <c r="A101" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B101" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C101" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D101" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E101">
         <v>2613.5104980000001</v>
@@ -31134,16 +31270,16 @@
     </row>
     <row r="102" spans="1:37">
       <c r="A102" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B102" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C102" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D102" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E102">
         <v>1520.4195560000001</v>
@@ -31247,16 +31383,16 @@
     </row>
     <row r="103" spans="1:37">
       <c r="A103" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C103" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D103" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E103">
         <v>615.46002199999998</v>
@@ -31360,16 +31496,16 @@
     </row>
     <row r="104" spans="1:37">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C104" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D104" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E104">
         <v>477.63085899999999</v>
@@ -31473,16 +31609,16 @@
     </row>
     <row r="105" spans="1:37">
       <c r="A105" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B105" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C105" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D105" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E105">
         <v>854.683899</v>
@@ -31586,16 +31722,16 @@
     </row>
     <row r="106" spans="1:37">
       <c r="A106" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B106" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C106" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E106">
         <v>576.50146500000005</v>
@@ -31699,16 +31835,16 @@
     </row>
     <row r="107" spans="1:37">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C107" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D107" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E107">
         <v>154.50418099999999</v>
@@ -31812,16 +31948,16 @@
     </row>
     <row r="108" spans="1:37">
       <c r="A108" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B108" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C108" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D108" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E108">
         <v>123.678284</v>
@@ -31925,16 +32061,16 @@
     </row>
     <row r="109" spans="1:37">
       <c r="A109" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B109" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C109" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E109">
         <v>824.51208499999996</v>
@@ -32038,16 +32174,16 @@
     </row>
     <row r="110" spans="1:37">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B110" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C110" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D110" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E110">
         <v>325.288971</v>
@@ -32151,16 +32287,16 @@
     </row>
     <row r="111" spans="1:37">
       <c r="A111" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B111" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C111" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E111">
         <v>133.36389199999999</v>
@@ -32264,16 +32400,16 @@
     </row>
     <row r="112" spans="1:37">
       <c r="A112" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B112" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C112" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D112" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E112">
         <v>365.85922199999999</v>
@@ -32377,16 +32513,16 @@
     </row>
     <row r="113" spans="1:37">
       <c r="A113" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B113" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C113" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D113" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E113">
         <v>30543.449218999998</v>
@@ -32490,24 +32626,24 @@
     </row>
     <row r="114" spans="1:37">
       <c r="A114" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C114" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:37">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B115" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C115" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E115">
         <v>973.12213099999997</v>
@@ -32611,16 +32747,16 @@
     </row>
     <row r="116" spans="1:37">
       <c r="A116" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B116" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C116" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D116" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E116">
         <v>362.63137799999998</v>
@@ -32719,21 +32855,21 @@
         <v>0</v>
       </c>
       <c r="AK116" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="1:37">
       <c r="A117" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B117" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C117" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D117" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E117">
         <v>52.558323000000001</v>
@@ -32832,21 +32968,21 @@
         <v>0</v>
       </c>
       <c r="AK117" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:37">
       <c r="A118" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B118" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C118" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D118" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E118">
         <v>557.93243399999994</v>
@@ -32953,13 +33089,13 @@
         <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C119" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D119" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E119">
         <v>61.695587000000003</v>
@@ -33063,16 +33199,16 @@
     </row>
     <row r="120" spans="1:37">
       <c r="A120" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B120" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C120" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D120" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E120">
         <v>4.4590550000000002</v>
@@ -33171,21 +33307,21 @@
         <v>0</v>
       </c>
       <c r="AK120" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:37">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B121" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C121" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -33284,21 +33420,21 @@
         <v>0</v>
       </c>
       <c r="AK121" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:37">
       <c r="A122" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B122" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C122" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D122" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E122">
         <v>56.236530000000002</v>
@@ -33402,16 +33538,16 @@
     </row>
     <row r="123" spans="1:37">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C123" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D123" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E123">
         <v>60.982719000000003</v>
@@ -33510,21 +33646,21 @@
         <v>0</v>
       </c>
       <c r="AK123" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:37">
       <c r="A124" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B124" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C124" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D124" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E124">
         <v>35.446449000000001</v>
@@ -33623,21 +33759,21 @@
         <v>0</v>
       </c>
       <c r="AK124" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:37">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B125" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C125" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D125" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E125">
         <v>0.23446900000000001</v>
@@ -33736,21 +33872,21 @@
         <v>0</v>
       </c>
       <c r="AK125" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:37">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B126" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C126" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E126">
         <v>25.301801999999999</v>
@@ -33849,21 +33985,21 @@
         <v>0</v>
       </c>
       <c r="AK126" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:37">
       <c r="A127" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C127" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D127" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E127">
         <v>128.10488900000001</v>
@@ -33967,16 +34103,16 @@
     </row>
     <row r="128" spans="1:37">
       <c r="A128" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B128" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C128" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D128" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E128">
         <v>45.535065000000003</v>
@@ -34080,16 +34216,16 @@
     </row>
     <row r="129" spans="1:37">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C129" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E129">
         <v>11.292742000000001</v>
@@ -34193,16 +34329,16 @@
     </row>
     <row r="130" spans="1:37">
       <c r="A130" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B130" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C130" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D130" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E130">
         <v>71.277091999999996</v>
@@ -34306,16 +34442,16 @@
     </row>
     <row r="131" spans="1:37">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B131" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C131" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D131" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E131">
         <v>370.10192899999998</v>
@@ -34419,16 +34555,16 @@
     </row>
     <row r="132" spans="1:37">
       <c r="A132" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B132" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C132" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D132" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E132">
         <v>120.765366</v>
@@ -34532,16 +34668,16 @@
     </row>
     <row r="133" spans="1:37">
       <c r="A133" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B133" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C133" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D133" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E133">
         <v>89.542006999999998</v>
@@ -34640,21 +34776,21 @@
         <v>0</v>
       </c>
       <c r="AK133" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:37">
       <c r="A134" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C134" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D134" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E134">
         <v>159.79454000000001</v>
@@ -34753,21 +34889,21 @@
         <v>0</v>
       </c>
       <c r="AK134" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:37">
       <c r="A135" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B135" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C135" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E135">
         <v>141.75122099999999</v>
@@ -34866,21 +35002,21 @@
         <v>0</v>
       </c>
       <c r="AK135" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:37">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C136" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E136">
         <v>53.771397</v>
@@ -34979,21 +35115,21 @@
         <v>0</v>
       </c>
       <c r="AK136" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:37">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C137" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D137" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E137">
         <v>20.968094000000001</v>
@@ -35092,21 +35228,21 @@
         <v>0</v>
       </c>
       <c r="AK137" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:37">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C138" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D138" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E138">
         <v>67.011734000000004</v>
@@ -35205,21 +35341,21 @@
         <v>0</v>
       </c>
       <c r="AK138" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:37">
       <c r="A139" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B139" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C139" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E139">
         <v>104.44010900000001</v>
@@ -35323,16 +35459,16 @@
     </row>
     <row r="140" spans="1:37">
       <c r="A140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B140" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C140" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E140">
         <v>56.157204</v>
@@ -35436,16 +35572,16 @@
     </row>
     <row r="141" spans="1:37">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B141" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C141" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D141" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E141">
         <v>30.538018999999998</v>
@@ -35549,16 +35685,16 @@
     </row>
     <row r="142" spans="1:37">
       <c r="A142" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C142" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D142" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E142">
         <v>17.744890000000002</v>
@@ -35662,16 +35798,16 @@
     </row>
     <row r="143" spans="1:37">
       <c r="A143" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B143" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C143" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D143" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E143">
         <v>358.04760700000003</v>
@@ -35775,16 +35911,16 @@
     </row>
     <row r="144" spans="1:37">
       <c r="A144" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B144" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C144" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D144" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E144">
         <v>243.89260899999999</v>
@@ -35888,16 +36024,16 @@
     </row>
     <row r="145" spans="1:37">
       <c r="A145" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B145" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D145" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E145">
         <v>33.320022999999999</v>
@@ -35996,21 +36132,21 @@
         <v>0</v>
       </c>
       <c r="AK145" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:37">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B146" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C146" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D146" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E146">
         <v>80.834969000000001</v>
@@ -36114,16 +36250,16 @@
     </row>
     <row r="147" spans="1:37">
       <c r="A147" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B147" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C147" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D147" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E147">
         <v>43.564812000000003</v>
@@ -36222,21 +36358,21 @@
         <v>0</v>
       </c>
       <c r="AK147" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="1:37">
       <c r="A148" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B148" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C148" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E148">
         <v>17.480015000000002</v>
@@ -36335,21 +36471,21 @@
         <v>0</v>
       </c>
       <c r="AK148" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:37">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C149" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D149" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E149">
         <v>11.544699</v>
@@ -36448,21 +36584,21 @@
         <v>0</v>
       </c>
       <c r="AK149" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:37">
       <c r="A150" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B150" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C150" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D150" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E150">
         <v>14.540100000000001</v>
@@ -36561,21 +36697,21 @@
         <v>0</v>
       </c>
       <c r="AK150" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:37">
       <c r="A151" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B151" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C151" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D151" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E151">
         <v>12.183221</v>
@@ -36679,16 +36815,16 @@
     </row>
     <row r="152" spans="1:37">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C152" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D152" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E152">
         <v>7.7736200000000002</v>
@@ -36792,16 +36928,16 @@
     </row>
     <row r="153" spans="1:37">
       <c r="A153" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C153" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D153" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E153">
         <v>2.4096009999999999</v>
@@ -36900,21 +37036,21 @@
         <v>0</v>
       </c>
       <c r="AK153" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:37">
       <c r="A154" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B154" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C154" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D154" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E154">
         <v>2</v>
@@ -37018,16 +37154,16 @@
     </row>
     <row r="155" spans="1:37">
       <c r="A155" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B155" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C155" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D155" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E155">
         <v>205.281509</v>
@@ -37131,16 +37267,16 @@
     </row>
     <row r="156" spans="1:37">
       <c r="A156" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C156" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D156" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E156">
         <v>92.896125999999995</v>
@@ -37244,16 +37380,16 @@
     </row>
     <row r="157" spans="1:37">
       <c r="A157" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C157" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D157" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E157">
         <v>58.098114000000002</v>
@@ -37352,21 +37488,21 @@
         <v>0</v>
       </c>
       <c r="AK157" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:37">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C158" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D158" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E158">
         <v>54.287277000000003</v>
@@ -37470,16 +37606,16 @@
     </row>
     <row r="159" spans="1:37">
       <c r="A159" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B159" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C159" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D159" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E159">
         <v>42.320098999999999</v>
@@ -37583,16 +37719,16 @@
     </row>
     <row r="160" spans="1:37">
       <c r="A160" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C160" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D160" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E160">
         <v>26.124779</v>
@@ -37691,21 +37827,21 @@
         <v>0</v>
       </c>
       <c r="AK160" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:37">
       <c r="A161" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C161" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D161" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E161">
         <v>0.77790099999999995</v>
@@ -37804,21 +37940,21 @@
         <v>0</v>
       </c>
       <c r="AK161" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:37">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B162" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C162" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D162" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E162">
         <v>15.41742</v>
@@ -37922,16 +38058,16 @@
     </row>
     <row r="163" spans="1:37">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B163" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C163" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D163" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E163">
         <v>36.925452999999997</v>
@@ -38030,21 +38166,21 @@
         <v>0</v>
       </c>
       <c r="AK163" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="164" spans="1:37">
       <c r="A164" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B164" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C164" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D164" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E164">
         <v>4.185937</v>
@@ -38143,21 +38279,21 @@
         <v>0</v>
       </c>
       <c r="AK164" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:37">
       <c r="A165" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B165" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C165" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D165" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E165">
         <v>3</v>
@@ -38256,21 +38392,21 @@
         <v>0</v>
       </c>
       <c r="AK165" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:37">
       <c r="A166" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B166" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C166" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D166" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E166">
         <v>29.739515000000001</v>
@@ -38369,21 +38505,21 @@
         <v>0</v>
       </c>
       <c r="AK166" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:37">
       <c r="A167" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B167" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C167" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D167" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E167">
         <v>2538.5214839999999</v>
@@ -38487,24 +38623,24 @@
     </row>
     <row r="168" spans="1:37">
       <c r="A168" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C168" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="169" spans="1:37">
       <c r="A169" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B169" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C169" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D169" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E169">
         <v>895.49011199999995</v>
@@ -38611,13 +38747,13 @@
         <v>51</v>
       </c>
       <c r="B170" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C170" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D170" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E170">
         <v>47.612076000000002</v>
@@ -38721,16 +38857,16 @@
     </row>
     <row r="171" spans="1:37">
       <c r="A171" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C171" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D171" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E171">
         <v>28.830814</v>
@@ -38834,16 +38970,16 @@
     </row>
     <row r="172" spans="1:37">
       <c r="A172" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B172" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C172" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D172" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E172">
         <v>75.016578999999993</v>
@@ -38947,16 +39083,16 @@
     </row>
     <row r="173" spans="1:37">
       <c r="A173" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B173" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C173" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D173" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E173">
         <v>414.60964999999999</v>
@@ -39060,16 +39196,16 @@
     </row>
     <row r="174" spans="1:37">
       <c r="A174" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B174" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C174" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D174" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E174">
         <v>62.829268999999996</v>
@@ -39173,16 +39309,16 @@
     </row>
     <row r="175" spans="1:37">
       <c r="A175" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B175" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C175" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D175" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E175">
         <v>102.505432</v>
@@ -39286,16 +39422,16 @@
     </row>
     <row r="176" spans="1:37">
       <c r="A176" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B176" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C176" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D176" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E176">
         <v>66.949698999999995</v>
@@ -39399,16 +39535,16 @@
     </row>
     <row r="177" spans="1:37">
       <c r="A177" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B177" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C177" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D177" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E177">
         <v>185.508713</v>
@@ -39512,16 +39648,16 @@
     </row>
     <row r="178" spans="1:37">
       <c r="A178" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B178" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C178" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D178" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E178">
         <v>71.052779999999998</v>
@@ -39625,16 +39761,16 @@
     </row>
     <row r="179" spans="1:37">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B179" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C179" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D179" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E179">
         <v>88.934691999999998</v>
@@ -39738,16 +39874,16 @@
     </row>
     <row r="180" spans="1:37">
       <c r="A180" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B180" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C180" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D180" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E180">
         <v>20</v>
@@ -39851,16 +39987,16 @@
     </row>
     <row r="181" spans="1:37">
       <c r="A181" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B181" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C181" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D181" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E181">
         <v>24.554976</v>
@@ -39964,16 +40100,16 @@
     </row>
     <row r="182" spans="1:37">
       <c r="A182" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B182" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C182" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D182" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E182">
         <v>2083.8945309999999</v>
@@ -40094,46 +40230,46 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="42.75">
       <c r="A2" s="22" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B3" s="32">
         <f>(Cars!V16+Trucks!V24)*(1000)</f>
@@ -40167,7 +40303,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B4" s="32">
         <f>SUM(Buses!U11:U13)*1000</f>
@@ -40227,7 +40363,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="23" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B8" s="32">
         <f>Motorbikes!V70*1000</f>
@@ -40252,45 +40388,45 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42.75">
       <c r="A1" s="36" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="34" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B2" s="35">
         <f>Trucks!V25*1000</f>
@@ -40312,7 +40448,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="34" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B3" s="35">
         <f>(Trucks!V26+Trucks!V27)*1000</f>
@@ -40365,7 +40501,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="34" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="31"/>
@@ -40378,7 +40514,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -40394,11 +40530,11 @@
       <selection activeCell="C50" sqref="C50:J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="17.649999999999999">
@@ -41649,6 +41785,853 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFA7B51-9B25-49E5-92FE-9FCDA0FB4CFC}">
+  <dimension ref="A2:T18"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>650</v>
+      </c>
+      <c r="J2" t="s">
+        <v>651</v>
+      </c>
+      <c r="L2">
+        <f>38010000/329500000</f>
+        <v>0.11535660091047041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H3" t="s">
+        <v>643</v>
+      </c>
+      <c r="M3" t="str">
+        <f>A3</f>
+        <v>Number of Vehicles</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:S3" si="0">B3</f>
+        <v>battery electric vehicle</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas vehicle</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="0"/>
+        <v>gasoline vehicle</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="0"/>
+        <v>diesel vehicle</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="0"/>
+        <v>plugin hybrid vehicle</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="0"/>
+        <v>LPG vehicle</v>
+      </c>
+      <c r="T3" t="str">
+        <f>H3</f>
+        <v>hydrogen vehicle</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B4">
+        <v>872915.99999999988</v>
+      </c>
+      <c r="C4">
+        <v>118567</v>
+      </c>
+      <c r="D4">
+        <v>253943823.99999997</v>
+      </c>
+      <c r="E4">
+        <v>1292884</v>
+      </c>
+      <c r="F4">
+        <v>641434.00000000012</v>
+      </c>
+      <c r="G4">
+        <v>93051</v>
+      </c>
+      <c r="H4">
+        <v>6446</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M9" si="1">A4</f>
+        <v>LDVs</v>
+      </c>
+      <c r="N4">
+        <f>B4*$L$2</f>
+        <v>100696.62264036418</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:T4" si="2">C4*$L$2</f>
+        <v>13677.486100151746</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>29294096.358846735</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>149142.70361153263</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>73993.645948406687</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>10734.047071320183</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>743.5886494688923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>89003.968103278894</v>
+      </c>
+      <c r="D5">
+        <v>97885.941482764523</v>
+      </c>
+      <c r="E5">
+        <v>786021.37237516593</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>7255.1325854891593</v>
+      </c>
+      <c r="H5">
+        <v>126.69237914387894</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>HDVs</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N9" si="3">B5*$L$2</f>
+        <v>34.606980273141126</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O9" si="4">C5*$L$2</f>
+        <v>10267.195227938182</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P9" si="5">D5*$L$2</f>
+        <v>11291.789486372927</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q9" si="6">E5*$L$2</f>
+        <v>90672.75376018227</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R9" si="7">F5*$L$2</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S9" si="8">G5*$L$2</f>
+        <v>836.92743421682235</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T9" si="9">H5*$L$2</f>
+        <v>14.614802219298447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>7149.0898440000001</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>aircraft</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>824.69470400740522</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1894.1878942932087</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>624.11210570679145</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>rail</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>218.50707697142599</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>71.99545110141166</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9854565.4293467794</v>
+      </c>
+      <c r="E8">
+        <v>2850434.9329325566</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>ships</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>1136789.1713792749</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>328816.48497956444</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8596314</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>motorbikes</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>991641.5633990895</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="45.75">
+      <c r="A12" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="M12" t="str">
+        <f>A12</f>
+        <v>Number of Vehicles</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ref="N12:T12" si="10">B12</f>
+        <v>battery electric vehicle</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="10"/>
+        <v>natural gas vehicle</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="10"/>
+        <v>gasoline vehicle</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="10"/>
+        <v>diesel vehicle</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="10"/>
+        <v>plugin hybrid vehicle</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="10"/>
+        <v>LPG vehicle</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="10"/>
+        <v>hydrogen vehicle</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" s="6">
+        <v>84.000000000000014</v>
+      </c>
+      <c r="C13" s="6">
+        <v>14866.598</v>
+      </c>
+      <c r="D13" s="6">
+        <v>11972117.539999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9818361.2930000015</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5402.8509999999997</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ref="M13:M18" si="11">A13</f>
+        <v>LDVs</v>
+      </c>
+      <c r="N13">
+        <f>B13*$L$2</f>
+        <v>9.6899544764795156</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:U13" si="12">C13*$L$2</f>
+        <v>1714.9602123823977</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="12"/>
+        <v>1381062.7851150227</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="12"/>
+        <v>1132612.7852714113</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="12"/>
+        <v>623.2545265857359</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>43170</v>
+      </c>
+      <c r="D14">
+        <v>49465</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4968137</v>
+      </c>
+      <c r="F14">
+        <v>202</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4008.0000000000005</v>
+      </c>
+      <c r="H14" s="6">
+        <v>114</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="11"/>
+        <v>HDVs</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N18" si="13">B14*$L$2</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O18" si="14">C14*$L$2</f>
+        <v>4979.9444613050073</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P18" si="15">D14*$L$2</f>
+        <v>5706.1142640364187</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q18" si="16">E14*$L$2</f>
+        <v>573107.39717754174</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R18" si="17">F14*$L$2</f>
+        <v>23.302033383915024</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14:S18" si="18">G14*$L$2</f>
+        <v>462.34925644916547</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14:T18" si="19">H14*$L$2</f>
+        <v>13.150652503793626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>895.49011199999995</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="11"/>
+        <v>aircraft</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="16"/>
+        <v>103.30069546925644</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>26052.44378698225</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="11"/>
+        <v>rail</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="16"/>
+        <v>3005.3213606773757</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10110</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="11"/>
+        <v>ships</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="16"/>
+        <v>1166.2552352048558</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="11"/>
+        <v>motorbikes</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -41656,50 +42639,50 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B2" s="6">
         <f>Passenger!C3</f>
@@ -41726,13 +42709,14 @@
         <v>119430.97014925374</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!T4</f>
+        <v>743.5886494688923</v>
       </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B3" s="6">
         <f>Passenger!C4</f>
@@ -41751,16 +42735,16 @@
         <v>73876</v>
       </c>
       <c r="F3" s="6">
-        <f>Passenger!G4</f>
+        <f>'EPS 3.3.1 data'!R5</f>
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>Passenger!H4</f>
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!S5</f>
+        <v>836.92743421682235</v>
       </c>
       <c r="H3" s="6">
-        <f>Passenger!I4</f>
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!T5</f>
+        <v>14.614802219298447</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -41769,12 +42753,15 @@
         <v>21</v>
       </c>
       <c r="B4" s="6">
+        <f>'EPS 3.3.1 data'!N6</f>
         <v>0</v>
       </c>
       <c r="C4" s="6">
+        <f>'EPS 3.3.1 data'!O6</f>
         <v>0</v>
       </c>
       <c r="D4" s="6">
+        <f>'EPS 3.3.1 data'!P6</f>
         <v>0</v>
       </c>
       <c r="E4" s="6">
@@ -41782,12 +42769,15 @@
         <v>856.37652600000001</v>
       </c>
       <c r="F4" s="6">
+        <f>'EPS 3.3.1 data'!R6</f>
         <v>0</v>
       </c>
       <c r="G4" s="6">
+        <f>'EPS 3.3.1 data'!S6</f>
         <v>0</v>
       </c>
       <c r="H4" s="6">
+        <f>'EPS 3.3.1 data'!T6</f>
         <v>0</v>
       </c>
       <c r="J4" s="11"/>
@@ -41797,12 +42787,15 @@
         <v>10</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!N7</f>
+        <v>218.50707697142599</v>
       </c>
       <c r="C5" s="6">
+        <f>'EPS 3.3.1 data'!O7</f>
         <v>0</v>
       </c>
       <c r="D5" s="6">
+        <f>'EPS 3.3.1 data'!P7</f>
         <v>0</v>
       </c>
       <c r="E5" s="6">
@@ -41810,12 +42803,15 @@
         <v>3478.3395087824001</v>
       </c>
       <c r="F5" s="6">
+        <f>'EPS 3.3.1 data'!R7</f>
         <v>0</v>
       </c>
       <c r="G5" s="6">
+        <f>'EPS 3.3.1 data'!S7</f>
         <v>0</v>
       </c>
       <c r="H5" s="6">
+        <f>'EPS 3.3.1 data'!T7</f>
         <v>0</v>
       </c>
       <c r="J5" s="11"/>
@@ -41825,37 +42821,45 @@
         <v>19</v>
       </c>
       <c r="B6" s="6">
+        <f>'EPS 3.3.1 data'!N8</f>
         <v>0</v>
       </c>
       <c r="C6" s="6">
+        <f>'EPS 3.3.1 data'!O8</f>
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!P8</f>
+        <v>1136789.1713792749</v>
       </c>
       <c r="E6" s="6">
         <f>Passenger!B7</f>
         <v>65</v>
       </c>
       <c r="F6" s="6">
+        <f>'EPS 3.3.1 data'!R8</f>
         <v>0</v>
       </c>
       <c r="G6" s="6">
+        <f>'EPS 3.3.1 data'!S8</f>
         <v>0</v>
       </c>
       <c r="H6" s="6">
+        <f>'EPS 3.3.1 data'!T8</f>
         <v>0</v>
       </c>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B7" s="6">
+        <f>'EPS 3.3.1 data'!N9</f>
         <v>0</v>
       </c>
       <c r="C7" s="6">
+        <f>'EPS 3.3.1 data'!O9</f>
         <v>0</v>
       </c>
       <c r="D7" s="6">
@@ -41863,15 +42867,19 @@
         <v>730000</v>
       </c>
       <c r="E7" s="6">
+        <f>'EPS 3.3.1 data'!Q9</f>
         <v>0</v>
       </c>
       <c r="F7" s="6">
+        <f>'EPS 3.3.1 data'!R9</f>
         <v>0</v>
       </c>
       <c r="G7" s="6">
+        <f>'EPS 3.3.1 data'!S9</f>
         <v>0</v>
       </c>
       <c r="H7" s="6">
+        <f>'EPS 3.3.1 data'!T9</f>
         <v>0</v>
       </c>
       <c r="J7" s="11"/>
@@ -41935,7 +42943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -41943,58 +42951,58 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B2" s="6">
-        <f>Freight!C2</f>
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!N13</f>
+        <v>9.6899544764795156</v>
       </c>
       <c r="C2" s="6">
-        <f>Freight!D2</f>
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!O13</f>
+        <v>1714.9602123823977</v>
       </c>
       <c r="D2" s="6">
         <f>Freight!E2</f>
@@ -42005,7 +43013,7 @@
         <v>40764</v>
       </c>
       <c r="F2" s="6">
-        <f>Freight!G2</f>
+        <f>'EPS 3.3.1 data'!R13</f>
         <v>0</v>
       </c>
       <c r="G2" s="6">
@@ -42013,17 +43021,17 @@
         <v>78131</v>
       </c>
       <c r="H2" s="6">
-        <f>Freight!I2</f>
+        <f>'EPS 3.3.1 data'!T13</f>
         <v>0</v>
       </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B3" s="6">
-        <f>Freight!C3</f>
+        <f>'EPS 3.3.1 data'!N14</f>
         <v>0</v>
       </c>
       <c r="C3" s="6">
@@ -42039,16 +43047,16 @@
         <v>1316196.4621000001</v>
       </c>
       <c r="F3" s="6">
-        <f>Freight!G3</f>
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!R14</f>
+        <v>23.302033383915024</v>
       </c>
       <c r="G3" s="6">
-        <f>Freight!H3</f>
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!S14</f>
+        <v>462.34925644916547</v>
       </c>
       <c r="H3" s="6">
-        <f>Freight!I3</f>
-        <v>0</v>
+        <f>'EPS 3.3.1 data'!T14</f>
+        <v>13.150652503793626</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -42056,26 +43064,32 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="6">
+        <f>'EPS 3.3.1 data'!N15</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <f>'EPS 3.3.1 data'!O15</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <f>'EPS 3.3.1 data'!P15</f>
         <v>0</v>
       </c>
       <c r="E4" s="4">
         <f>Freight!B4</f>
         <v>47.612076000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
+        <f>'EPS 3.3.1 data'!R15</f>
         <v>0</v>
       </c>
       <c r="G4" s="6">
+        <f>'EPS 3.3.1 data'!S15</f>
         <v>0</v>
       </c>
       <c r="H4" s="6">
+        <f>'EPS 3.3.1 data'!T15</f>
         <v>0</v>
       </c>
       <c r="J4" s="11"/>
@@ -42084,26 +43098,32 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="6">
+        <f>'EPS 3.3.1 data'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'EPS 3.3.1 data'!O16</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'EPS 3.3.1 data'!P16</f>
         <v>0</v>
       </c>
       <c r="E5" s="6">
         <f>Freight!B5</f>
         <v>2296.6604912175994</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
+        <f>'EPS 3.3.1 data'!R16</f>
         <v>0</v>
       </c>
       <c r="G5" s="6">
+        <f>'EPS 3.3.1 data'!S16</f>
         <v>0</v>
       </c>
       <c r="H5" s="6">
+        <f>'EPS 3.3.1 data'!T16</f>
         <v>0</v>
       </c>
       <c r="J5" s="11"/>
@@ -42112,53 +43132,66 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="6">
+        <f>'EPS 3.3.1 data'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'EPS 3.3.1 data'!O17</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'EPS 3.3.1 data'!P17</f>
         <v>0</v>
       </c>
       <c r="E6" s="6">
         <f>Freight!B6</f>
         <v>137</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
+        <f>'EPS 3.3.1 data'!R17</f>
         <v>0</v>
       </c>
       <c r="G6" s="6">
+        <f>'EPS 3.3.1 data'!S17</f>
         <v>0</v>
       </c>
       <c r="H6" s="6">
+        <f>'EPS 3.3.1 data'!T17</f>
         <v>0</v>
       </c>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>646</v>
+      </c>
+      <c r="B7" s="6">
+        <f>'EPS 3.3.1 data'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <f>'EPS 3.3.1 data'!O18</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <f>'EPS 3.3.1 data'!P18</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <f>'EPS 3.3.1 data'!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f>'EPS 3.3.1 data'!R18</f>
         <v>0</v>
       </c>
       <c r="G7" s="6">
+        <f>'EPS 3.3.1 data'!S18</f>
         <v>0</v>
       </c>
       <c r="H7" s="6">
+        <f>'EPS 3.3.1 data'!T18</f>
         <v>0</v>
       </c>
       <c r="J7" s="11"/>
@@ -42172,13 +43205,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CF0FB4-E807-48E0-A6D3-BD685128A276}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -44734,7 +45767,7 @@
       <selection activeCell="U11" sqref="U11:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13"/>
@@ -45830,7 +46863,7 @@
       <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:23" ht="17.649999999999999">
       <c r="B2" s="12" t="s">
@@ -49566,9 +50599,9 @@
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.73046875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
@@ -50511,15 +51544,15 @@
         <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>648</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
-        <v>649</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B63" s="6">
         <f>K21/B53</f>
@@ -50540,7 +51573,7 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B64" s="6">
         <f>K47/B54</f>
@@ -50561,7 +51594,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -50574,7 +51607,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B70">
         <v>745</v>
@@ -50585,7 +51618,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B71">
         <v>1749</v>
@@ -50596,7 +51629,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B72">
         <v>1152</v>
@@ -50607,7 +51640,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -50620,7 +51653,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B84" s="6">
         <f>C63+(SUM(B70:B72))</f>
@@ -50633,7 +51666,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B85" s="6">
         <f>C64</f>
@@ -50661,32 +51694,32 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" thickBot="1">
       <c r="A1" s="86" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.65" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="98" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C2" s="99"/>
       <c r="D2" s="100"/>
       <c r="E2" s="98" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F2" s="99"/>
       <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" s="75">
         <v>2000</v>
@@ -50709,7 +51742,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B4" s="78">
         <v>1286</v>
@@ -50732,7 +51765,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B5" s="78">
         <v>375</v>
@@ -50755,7 +51788,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B6" s="78">
         <v>178</v>
@@ -50778,7 +51811,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B7" s="78">
         <v>323</v>
@@ -50801,7 +51834,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" s="78">
         <v>38</v>
@@ -50847,17 +51880,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.9">
@@ -50898,7 +51931,7 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:22" ht="17.649999999999999">
       <c r="B2" s="12" t="s">
@@ -50975,7 +52008,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.4">
       <c r="B5" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -51127,7 +52160,7 @@
     <row r="10" spans="2:22">
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" s="17">
         <v>50.3</v>
@@ -51190,7 +52223,7 @@
     <row r="11" spans="2:22">
       <c r="B11" s="13"/>
       <c r="C11" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -51215,7 +52248,7 @@
     <row r="12" spans="2:22">
       <c r="B12" s="13"/>
       <c r="C12" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D12" s="13">
         <v>3.1</v>
@@ -51278,7 +52311,7 @@
     <row r="13" spans="2:22">
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D13" s="13">
         <v>1.3</v>
@@ -51341,7 +52374,7 @@
     <row r="14" spans="2:22">
       <c r="B14" s="13"/>
       <c r="C14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D14" s="13">
         <v>2.7</v>
@@ -51404,7 +52437,7 @@
     <row r="15" spans="2:22">
       <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" s="13">
         <v>43.2</v>
@@ -51467,7 +52500,7 @@
     <row r="16" spans="2:22">
       <c r="B16" s="13"/>
       <c r="C16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -51530,7 +52563,7 @@
     <row r="17" spans="2:22">
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -51593,7 +52626,7 @@
     <row r="18" spans="2:22">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
@@ -51704,7 +52737,7 @@
     <row r="21" spans="2:22">
       <c r="B21" s="13"/>
       <c r="C21" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D21" s="13">
         <v>6.2</v>
@@ -51767,7 +52800,7 @@
     <row r="22" spans="2:22">
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D22" s="13">
         <v>2.6</v>
@@ -51830,7 +52863,7 @@
     <row r="23" spans="2:22">
       <c r="B23" s="13"/>
       <c r="C23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D23" s="13">
         <v>5.3</v>
@@ -51893,7 +52926,7 @@
     <row r="24" spans="2:22">
       <c r="B24" s="13"/>
       <c r="C24" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D24" s="13">
         <v>85.9</v>
@@ -51956,7 +52989,7 @@
     <row r="25" spans="2:22">
       <c r="B25" s="13"/>
       <c r="C25" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -52019,7 +53052,7 @@
     <row r="26" spans="2:22">
       <c r="B26" s="13"/>
       <c r="C26" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D26" s="13">
         <v>0</v>
@@ -52082,7 +53115,7 @@
     <row r="27" spans="2:22">
       <c r="B27" s="13"/>
       <c r="C27" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D27" s="13">
         <v>0</v>
@@ -52388,7 +53421,7 @@
     <row r="35" spans="2:22" ht="14.65">
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D35" s="17">
         <v>3.5</v>
@@ -52451,7 +53484,7 @@
     <row r="36" spans="2:22" ht="15">
       <c r="B36" s="13"/>
       <c r="C36" s="25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -52476,7 +53509,7 @@
     <row r="37" spans="2:22">
       <c r="B37" s="13"/>
       <c r="C37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D37" s="13">
         <v>0.2</v>
@@ -52539,7 +53572,7 @@
     <row r="38" spans="2:22">
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D38" s="13">
         <v>0.1</v>
@@ -52602,7 +53635,7 @@
     <row r="39" spans="2:22">
       <c r="B39" s="13"/>
       <c r="C39" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D39" s="13">
         <v>0.2</v>
@@ -52665,7 +53698,7 @@
     <row r="40" spans="2:22">
       <c r="B40" s="13"/>
       <c r="C40" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D40" s="13">
         <v>3.1</v>
@@ -52728,7 +53761,7 @@
     <row r="41" spans="2:22">
       <c r="B41" s="13"/>
       <c r="C41" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D41" s="13">
         <v>0</v>
@@ -52791,7 +53824,7 @@
     <row r="42" spans="2:22">
       <c r="B42" s="13"/>
       <c r="C42" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D42" s="13">
         <v>0</v>
@@ -52854,7 +53887,7 @@
     <row r="43" spans="2:22">
       <c r="B43" s="13"/>
       <c r="C43" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D43" s="13">
         <v>0</v>
@@ -52965,7 +53998,7 @@
     <row r="46" spans="2:22">
       <c r="B46" s="13"/>
       <c r="C46" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D46" s="13">
         <v>5.3</v>
@@ -53028,7 +54061,7 @@
     <row r="47" spans="2:22">
       <c r="B47" s="13"/>
       <c r="C47" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D47" s="13">
         <v>1.9</v>
@@ -53091,7 +54124,7 @@
     <row r="48" spans="2:22">
       <c r="B48" s="13"/>
       <c r="C48" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D48" s="13">
         <v>5.0999999999999996</v>
@@ -53154,7 +54187,7 @@
     <row r="49" spans="2:22">
       <c r="B49" s="13"/>
       <c r="C49" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D49" s="13">
         <v>87.7</v>
@@ -53217,7 +54250,7 @@
     <row r="50" spans="2:22">
       <c r="B50" s="13"/>
       <c r="C50" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D50" s="13">
         <v>0</v>
@@ -53280,7 +54313,7 @@
     <row r="51" spans="2:22">
       <c r="B51" s="13"/>
       <c r="C51" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D51" s="13">
         <v>0</v>
@@ -53343,7 +54376,7 @@
     <row r="52" spans="2:22">
       <c r="B52" s="13"/>
       <c r="C52" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D52" s="13">
         <v>0</v>
@@ -53538,7 +54571,7 @@
     <row r="57" spans="2:22" ht="106.5">
       <c r="B57" s="13"/>
       <c r="C57" s="19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D57" s="17">
         <v>0.2</v>
@@ -53611,7 +54644,7 @@
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:23">
       <c r="B2" s="13"/>
@@ -53715,7 +54748,7 @@
     </row>
     <row r="6" spans="2:23" ht="15.4">
       <c r="B6" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -53872,7 +54905,7 @@
     <row r="11" spans="2:23">
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D11" s="17">
         <v>625.5</v>
@@ -53936,7 +54969,7 @@
     <row r="12" spans="2:23">
       <c r="B12" s="13"/>
       <c r="C12" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -53962,7 +54995,7 @@
     <row r="13" spans="2:23">
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -54026,7 +55059,7 @@
     <row r="14" spans="2:23">
       <c r="B14" s="13"/>
       <c r="C14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D14" s="13">
         <v>615</v>
@@ -54090,7 +55123,7 @@
     <row r="15" spans="2:23">
       <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" s="13">
         <v>3.7</v>
@@ -54154,7 +55187,7 @@
     <row r="16" spans="2:23">
       <c r="B16" s="13"/>
       <c r="C16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -54218,7 +55251,7 @@
     <row r="17" spans="2:23">
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -54282,7 +55315,7 @@
     <row r="18" spans="2:23">
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D18" s="13">
         <v>5.8</v>
@@ -54396,7 +55429,7 @@
     <row r="21" spans="2:23">
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D21" s="13">
         <v>0.2</v>
@@ -54460,7 +55493,7 @@
     <row r="22" spans="2:23">
       <c r="B22" s="13"/>
       <c r="C22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D22" s="13">
         <v>98.3</v>
@@ -54524,7 +55557,7 @@
     <row r="23" spans="2:23">
       <c r="B23" s="13"/>
       <c r="C23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D23" s="13">
         <v>0.6</v>
@@ -54588,7 +55621,7 @@
     <row r="24" spans="2:23">
       <c r="B24" s="13"/>
       <c r="C24" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
@@ -54652,7 +55685,7 @@
     <row r="25" spans="2:23">
       <c r="B25" s="13"/>
       <c r="C25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -54716,7 +55749,7 @@
     <row r="26" spans="2:23">
       <c r="B26" s="13"/>
       <c r="C26" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D26" s="13">
         <v>0.9</v>
@@ -55030,7 +56063,7 @@
     <row r="34" spans="2:23" ht="14.65">
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D34" s="17">
         <v>43.9</v>
@@ -55094,7 +56127,7 @@
     <row r="35" spans="2:23" ht="15">
       <c r="B35" s="13"/>
       <c r="C35" s="25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -55120,7 +56153,7 @@
     <row r="36" spans="2:23">
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D36" s="13">
         <v>0</v>
@@ -55184,7 +56217,7 @@
     <row r="37" spans="2:23">
       <c r="B37" s="13"/>
       <c r="C37" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D37" s="13">
         <v>43.2</v>
@@ -55248,7 +56281,7 @@
     <row r="38" spans="2:23">
       <c r="B38" s="13"/>
       <c r="C38" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D38" s="13">
         <v>0.3</v>
@@ -55312,7 +56345,7 @@
     <row r="39" spans="2:23">
       <c r="B39" s="13"/>
       <c r="C39" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D39" s="13">
         <v>0</v>
@@ -55376,7 +56409,7 @@
     <row r="40" spans="2:23">
       <c r="B40" s="13"/>
       <c r="C40" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D40" s="13">
         <v>0</v>
@@ -55440,7 +56473,7 @@
     <row r="41" spans="2:23">
       <c r="B41" s="13"/>
       <c r="C41" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D41" s="13">
         <v>0.4</v>
@@ -55554,7 +56587,7 @@
     <row r="44" spans="2:23">
       <c r="B44" s="13"/>
       <c r="C44" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D44" s="13">
         <v>0.1</v>
@@ -55618,7 +56651,7 @@
     <row r="45" spans="2:23">
       <c r="B45" s="13"/>
       <c r="C45" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D45" s="13">
         <v>98.5</v>
@@ -55682,7 +56715,7 @@
     <row r="46" spans="2:23">
       <c r="B46" s="13"/>
       <c r="C46" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D46" s="13">
         <v>0.6</v>
@@ -55746,7 +56779,7 @@
     <row r="47" spans="2:23">
       <c r="B47" s="13"/>
       <c r="C47" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
@@ -55810,7 +56843,7 @@
     <row r="48" spans="2:23">
       <c r="B48" s="13"/>
       <c r="C48" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D48" s="13">
         <v>0</v>
@@ -55874,7 +56907,7 @@
     <row r="49" spans="2:23">
       <c r="B49" s="13"/>
       <c r="C49" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D49" s="13">
         <v>0.8</v>
@@ -56077,32 +57110,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <SharedWithUsers xmlns="d580559a-617d-4d7d-8fb9-71ff64b58360">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -56126,6 +57144,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -56212,6 +57232,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -56347,56 +57379,40 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058E23EF-3D90-4B93-86C7-1785D5F5FEB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B880F57-318B-415D-9293-8F1EFC390ADC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0109C46A-9D09-49D1-8BD9-B7BE2C9E889A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9965FDF5-AB8E-4FE1-9C03-E430C1370BAD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B880F57-318B-415D-9293-8F1EFC390ADC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058E23EF-3D90-4B93-86C7-1785D5F5FEB1}"/>
 </file>
--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/SYVbT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{65081E6B-8365-4880-9C0D-FA16E63DBED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80FA8353-B664-4F34-A5FD-0EB14BCC4B89}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{A768109A-AD31-43DE-908B-C390333AD68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55D0435-F005-4128-BE62-400352AA1C3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="988" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D787F06F-310F-45A2-BECD-F7F8865DAD4C}</author>
+    <author>tc={065625C1-8537-4ECC-A3F8-FA6F37CC44BD}</author>
+    <author>tc={31D00625-80DF-497D-A671-701DA40A4B34}</author>
+    <author>tc={FE07B9F1-B397-4C75-8E70-1F8625A864FA}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D787F06F-310F-45A2-BECD-F7F8865DAD4C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=(Trucks!V26+Trucks!V27)*1000</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{065625C1-8537-4ECC-A3F8-FA6F37CC44BD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=(SUM(Trucks!V25:V27)*1000)*('Freight Truck Energy Cnsumption'!V21/100)</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{31D00625-80DF-497D-A671-701DA40A4B34}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=B3-F3-D3</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="3" shapeId="0" xr:uid="{FE07B9F1-B397-4C75-8E70-1F8625A864FA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previously:
+=(Trucks!V27*1000)+((Trucks!V26*1000)*('Medium Truck Energy Consumption'!U18/100))</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="713">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -2648,23 +2697,131 @@
   <si>
     <t>SYFAFE</t>
   </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>BTU</t>
+  </si>
+  <si>
+    <t>BTU per PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*summing Tables 33, 30, 37, 53, 57, 38, </t>
+  </si>
+  <si>
+    <t>*taken from Canada_Calibration file</t>
+  </si>
+  <si>
+    <t>2019 NRCan</t>
+  </si>
+  <si>
+    <t>2018 NRCan</t>
+  </si>
+  <si>
+    <t>2020 EIA</t>
+  </si>
+  <si>
+    <t>2020 EPS</t>
+  </si>
+  <si>
+    <t>2020 ICCT</t>
+  </si>
+  <si>
+    <t>Energy Use by Transportation Mode (PJ)</t>
+  </si>
+  <si>
+    <t>*Table 1 (excluding Off-road) - includes marine and air travel</t>
+  </si>
+  <si>
+    <t>Freight Light</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Freight (total)</t>
+  </si>
+  <si>
+    <t>Avg Distance (km)</t>
+  </si>
+  <si>
+    <t>Gasoline Energy (PJ)</t>
+  </si>
+  <si>
+    <t>Diesel Energy (PJ)</t>
+  </si>
+  <si>
+    <t>Gasoline Energy Density (PJ/L)</t>
+  </si>
+  <si>
+    <t>Diesel Energy Density (PJ/L)</t>
+  </si>
+  <si>
+    <t>Diesel Avg. Fuel Consumption (L/100 km)</t>
+  </si>
+  <si>
+    <t>Gasoline Avg. Fuel Consumption (L/100 km)</t>
+  </si>
+  <si>
+    <t>Estimates</t>
+  </si>
+  <si>
+    <t>Gasoline Consumption (PJ)</t>
+  </si>
+  <si>
+    <t>Diesel Consumption (PJ)</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>LDV</t>
+  </si>
+  <si>
+    <t>HDV</t>
+  </si>
+  <si>
+    <t>Freight Trucks</t>
+  </si>
+  <si>
+    <t>HDV Energy Source Proportion*</t>
+  </si>
+  <si>
+    <t>*this table is necessary because there is no Heavy Truck Energy Consumption by Energy Source table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(the 'Freight Truck Energy Cnsumption' sheet is aggregated freight truck data, and cannot be used to </t>
+  </si>
+  <si>
+    <t>directly calculate the HDV number of vehicles based on energy source share, as was done with LDVs</t>
+  </si>
+  <si>
+    <t>and MDVs/motorbikes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3039,8 +3196,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3207,6 +3371,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3641,7 +3823,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -3676,28 +3858,28 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="6">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3786,7 +3968,7 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0">
@@ -3824,9 +4006,9 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3896,11 +4078,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3920,7 +4102,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3938,8 +4120,8 @@
     <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="140" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="140" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3958,7 +4140,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3995,14 +4177,26 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="140" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="30" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="30" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="30" borderId="0" xfId="142" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="30" borderId="0" xfId="142" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="30" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="30" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="30" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4012,7 +4206,6 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4251,6 +4444,12 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andre Dixon" id="{79D22CEB-DD3F-4506-A72E-76B0A8773B47}" userId="Andre Dixon" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4572,17 +4771,38 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2022-10-13T20:30:21.52" personId="{79D22CEB-DD3F-4506-A72E-76B0A8773B47}" id="{D787F06F-310F-45A2-BECD-F7F8865DAD4C}">
+    <text>Previously:
+=(Trucks!V26+Trucks!V27)*1000</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2022-10-13T20:57:21.33" personId="{79D22CEB-DD3F-4506-A72E-76B0A8773B47}" id="{065625C1-8537-4ECC-A3F8-FA6F37CC44BD}">
+    <text>Previously:
+=(SUM(Trucks!V25:V27)*1000)*('Freight Truck Energy Cnsumption'!V21/100)</text>
+  </threadedComment>
+  <threadedComment ref="E3" dT="2022-10-13T20:57:40.50" personId="{79D22CEB-DD3F-4506-A72E-76B0A8773B47}" id="{31D00625-80DF-497D-A671-701DA40A4B34}">
+    <text>Previously:
+=B3-F3-D3</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2022-10-13T20:32:09.95" personId="{79D22CEB-DD3F-4506-A72E-76B0A8773B47}" id="{FE07B9F1-B397-4C75-8E70-1F8625A864FA}">
+    <text>Previously:
+=(Trucks!V27*1000)+((Trucks!V26*1000)*('Medium Truck Energy Consumption'!U18/100))</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4894,11 +5114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EB96D2-0DBE-42FC-ABE6-8178914881E3}">
   <dimension ref="B2:V52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:22">
       <c r="B2" s="13"/>
@@ -4923,7 +5143,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
     </row>
-    <row r="3" spans="2:22" ht="18">
+    <row r="3" spans="2:22" ht="17.399999999999999">
       <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
@@ -4972,7 +5192,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75">
+    <row r="5" spans="2:22" ht="15.6">
       <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
@@ -4996,7 +5216,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="2:22" ht="15.75">
+    <row r="6" spans="2:22" ht="15.6">
       <c r="B6" s="14" t="s">
         <v>221</v>
       </c>
@@ -6280,7 +6500,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="2:22" ht="78">
+    <row r="34" spans="2:22" ht="81.599999999999994">
       <c r="B34" s="17"/>
       <c r="C34" s="19" t="s">
         <v>223</v>
@@ -7290,13 +7510,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE46859-77BB-854F-B575-145375636BCF}">
   <dimension ref="A2:U50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:21" ht="18">
+    <row r="2" spans="1:21" ht="17.399999999999999">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -7346,7 +7566,7 @@
       <c r="T3" s="50"/>
       <c r="U3" s="50"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75">
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -7371,7 +7591,7 @@
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75">
+    <row r="5" spans="1:21" ht="15.6">
       <c r="A5" s="14" t="s">
         <v>224</v>
       </c>
@@ -8661,7 +8881,7 @@
       <c r="T32" s="50"/>
       <c r="U32" s="50"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="52" t="s">
         <v>229</v>
@@ -9648,16 +9868,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ED627E-85CE-F246-9578-EC02633BB392}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
+    <row r="1" spans="1:21" ht="17.399999999999999">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -9681,7 +9901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75">
+    <row r="3" spans="1:21" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -9689,7 +9909,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75">
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>230</v>
       </c>
@@ -10517,7 +10737,7 @@
         <v>5.9011940000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>232</v>
@@ -11240,12 +11460,12 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
+    <row r="1" spans="1:21" ht="17.399999999999999">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -11269,7 +11489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75">
+    <row r="3" spans="1:21" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -11277,7 +11497,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75">
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>233</v>
       </c>
@@ -11345,7 +11565,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="16.2">
       <c r="A9" s="17"/>
       <c r="B9" s="52" t="s">
         <v>234</v>
@@ -12880,7 +13100,7 @@
     <row r="39" spans="1:21">
       <c r="B39" s="67"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" ht="16.8">
       <c r="A40" s="17"/>
       <c r="B40" s="52" t="s">
         <v>235</v>
@@ -12943,7 +13163,7 @@
         <v>34.611961000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="78">
+    <row r="41" spans="1:21" ht="80.400000000000006">
       <c r="A41" s="7"/>
       <c r="B41" s="68" t="s">
         <v>120</v>
@@ -14377,10 +14597,10 @@
   <dimension ref="B2:X52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" s="13"/>
@@ -14406,7 +14626,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="2:24" ht="18">
+    <row r="3" spans="2:24" ht="17.399999999999999">
       <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
@@ -14457,7 +14677,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
     </row>
-    <row r="5" spans="2:24" ht="15.75">
+    <row r="5" spans="2:24" ht="15.6">
       <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
@@ -14482,7 +14702,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="2:24" ht="15.75">
+    <row r="6" spans="2:24" ht="15.6">
       <c r="B6" s="14" t="s">
         <v>237</v>
       </c>
@@ -15796,7 +16016,7 @@
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
     </row>
-    <row r="34" spans="2:23">
+    <row r="34" spans="2:23" ht="15.6">
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
         <v>239</v>
@@ -16829,9 +17049,9 @@
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:21" ht="18">
+    <row r="2" spans="1:21" ht="17.399999999999999">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -16855,7 +17075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75">
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -16863,7 +17083,7 @@
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75">
+    <row r="5" spans="1:21" ht="15.6">
       <c r="A5" s="14" t="s">
         <v>245</v>
       </c>
@@ -16947,7 +17167,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="51.75">
+    <row r="10" spans="1:21" ht="53.4">
       <c r="A10" s="17"/>
       <c r="B10" s="19" t="s">
         <v>246</v>
@@ -17395,7 +17615,7 @@
         <v>3357.1370000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="39">
+    <row r="22" spans="1:21" ht="40.200000000000003">
       <c r="A22" s="17"/>
       <c r="B22" s="63" t="s">
         <v>249</v>
@@ -17481,7 +17701,7 @@
       <c r="T23" s="49"/>
       <c r="U23" s="49"/>
     </row>
-    <row r="25" spans="1:21" ht="78">
+    <row r="25" spans="1:21" ht="81.599999999999994">
       <c r="A25" s="17"/>
       <c r="B25" s="19" t="s">
         <v>250</v>
@@ -17946,7 +18166,7 @@
         <v>69.069860000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="18">
+    <row r="39" spans="1:21" ht="17.399999999999999">
       <c r="A39" s="12" t="s">
         <v>49</v>
       </c>
@@ -17970,7 +18190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75">
+    <row r="41" spans="1:21" ht="15.6">
       <c r="A41" s="14" t="s">
         <v>51</v>
       </c>
@@ -17978,7 +18198,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75">
+    <row r="42" spans="1:21" ht="15.6">
       <c r="A42" s="14" t="s">
         <v>251</v>
       </c>
@@ -18062,7 +18282,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="64.5">
+    <row r="47" spans="1:21" ht="66.599999999999994">
       <c r="A47" s="17"/>
       <c r="B47" s="19" t="s">
         <v>252</v>
@@ -18448,7 +18668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" ht="16.2">
       <c r="B57" s="48" t="s">
         <v>253</v>
       </c>
@@ -18510,7 +18730,7 @@
         <v>227453.11199999999</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="40.5">
+    <row r="59" spans="1:21" ht="42.6">
       <c r="A59" s="17"/>
       <c r="B59" s="63" t="s">
         <v>254</v>
@@ -18596,7 +18816,7 @@
       <c r="T60" s="49"/>
       <c r="U60" s="49"/>
     </row>
-    <row r="62" spans="1:21" ht="90.75">
+    <row r="62" spans="1:21" ht="94.8">
       <c r="A62" s="17"/>
       <c r="B62" s="19" t="s">
         <v>255</v>
@@ -19079,10 +19299,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -38812,17 +39032,17 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="43.2">
       <c r="A2" s="22" t="s">
         <v>635</v>
       </c>
@@ -38895,7 +39115,7 @@
         <v>92000</v>
       </c>
       <c r="C4">
-        <f>B4*'Bus Energy Consumption'!V21/100</f>
+        <f>'Bus Energy Consumption'!V21*Passenger!B4/100</f>
         <v>7912</v>
       </c>
       <c r="D4">
@@ -38966,21 +39186,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63A4777-D44D-4B91-AE4F-789FE1AB73FC}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63A4777-D44D-4B91-AE4F-789FE1AB73FC}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="17" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:19" ht="43.2">
       <c r="A1" s="36" t="s">
         <v>635</v>
       </c>
@@ -39008,8 +39230,9 @@
       <c r="I1" s="36" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="34" t="s">
         <v>644</v>
       </c>
@@ -39017,12 +39240,16 @@
         <f>Trucks!V25*1000</f>
         <v>3397000</v>
       </c>
+      <c r="D2">
+        <f>B2*('Light Truck Energy Consumption'!U20/100)</f>
+        <v>0</v>
+      </c>
       <c r="E2">
         <f>B2*('Light Truck Energy Consumption'!U21/100)</f>
         <v>3278105</v>
       </c>
       <c r="F2" s="6">
-        <f>Freight!B2*('Light Truck Energy Consumption'!U22/100)</f>
+        <f>B2*('Light Truck Energy Consumption'!U22/100)</f>
         <v>40764</v>
       </c>
       <c r="H2">
@@ -39030,31 +39257,83 @@
         <v>78131</v>
       </c>
       <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="6"/>
+      <c r="L2" t="s">
+        <v>677</v>
+      </c>
+      <c r="M2" t="s">
+        <v>684</v>
+      </c>
+      <c r="N2" t="s">
+        <v>683</v>
+      </c>
+      <c r="O2" s="110" t="s">
+        <v>685</v>
+      </c>
+      <c r="P2" s="110" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q2" s="110" t="s">
+        <v>687</v>
+      </c>
+      <c r="S2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="34" t="s">
         <v>645</v>
       </c>
       <c r="B3" s="35">
-        <f>(Trucks!V26+Trucks!V27)*1000</f>
-        <v>2175000</v>
+        <f>Trucks!V27*1000</f>
+        <v>481000</v>
       </c>
       <c r="D3" s="6">
-        <f>(SUM(Trucks!V25:V27)*1000)*('Freight Truck Energy Cnsumption'!V21/100)</f>
-        <v>5572</v>
+        <f>B3*G14</f>
+        <v>691.26748091146055</v>
       </c>
       <c r="E3" s="6">
-        <f>B3-F3-D3</f>
-        <v>853231.53789999988</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f>(Trucks!V27*1000)+((Trucks!V26*1000)*('Medium Truck Energy Consumption'!U18/100))</f>
-        <v>1316196.4621000001</v>
+        <f>B3*G16</f>
+        <v>479863.43282075995</v>
       </c>
       <c r="G3" s="31"/>
+      <c r="H3">
+        <f>_xlfn.FLOOR.MATH(B3*G17)</f>
+        <v>493</v>
+      </c>
       <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="6"/>
+      <c r="L3" t="s">
+        <v>678</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM('Bus Energy Consumption'!V12:V18)+SUM('Car Energy Consumption'!V13:V18)+SUM('Psngr Truck Energy Consumption'!V13:V18)+SUM('Light Truck Energy Consumption'!U12:U17)+SUM('Medium Truck Energy Consumption'!U11:U14)+SUM('Freight Truck Energy Cnsumption'!V13:V18)</f>
+        <v>2760.42371</v>
+      </c>
+      <c r="N3">
+        <f>1512.2+1219.6</f>
+        <v>2731.8</v>
+      </c>
+      <c r="O3" s="6">
+        <f>O4/$S$3</f>
+        <v>2637.6399663648153</v>
+      </c>
+      <c r="P3" s="6">
+        <f>P4/$S$3</f>
+        <v>2743.145565019408</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>Q4/$S$3</f>
+        <v>1508.7300607606742</v>
+      </c>
+      <c r="S3">
+        <v>947817000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="34" t="s">
         <v>21</v>
       </c>
@@ -39063,8 +39342,30 @@
         <v>47.612076000000002</v>
       </c>
       <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="6"/>
+      <c r="L4" t="s">
+        <v>679</v>
+      </c>
+      <c r="M4" s="103">
+        <f>M3*S3</f>
+        <v>2616376519541070</v>
+      </c>
+      <c r="N4">
+        <f>1512.2+1219.6</f>
+        <v>2731.8</v>
+      </c>
+      <c r="O4" s="103">
+        <v>2500000000000000</v>
+      </c>
+      <c r="P4" s="103">
+        <f>2600000000000000</f>
+        <v>2600000000000000</v>
+      </c>
+      <c r="Q4" s="103">
+        <v>1430000000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
@@ -39073,8 +39374,18 @@
         <v>2296.6604912175994</v>
       </c>
       <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="6"/>
+      <c r="M5" t="s">
+        <v>681</v>
+      </c>
+      <c r="N5" t="s">
+        <v>689</v>
+      </c>
+      <c r="O5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="34" t="s">
         <v>19</v>
       </c>
@@ -39083,27 +39394,408 @@
         <v>137</v>
       </c>
       <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="35">
+        <f>Trucks!V26*1000</f>
+        <v>1694000</v>
+      </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="E7" s="31">
+        <f>_xlfn.FLOOR.MATH(B7*('Medium Truck Energy Consumption'!U17/100))</f>
+        <v>852460</v>
+      </c>
+      <c r="F7" s="31">
+        <f>_xlfn.FLOOR.MATH(B7*('Medium Truck Energy Consumption'!U18/100))</f>
+        <v>835196</v>
+      </c>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J7" s="6"/>
+      <c r="L7" t="s">
+        <v>688</v>
+      </c>
+      <c r="M7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <v>495.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>649</v>
       </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>619.20000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11">
+        <v>305.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12">
+        <v>485.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="117" t="s">
+        <v>678</v>
+      </c>
+      <c r="C13" t="s">
+        <v>707</v>
+      </c>
+      <c r="D13" t="s">
+        <v>705</v>
+      </c>
+      <c r="E13" t="s">
+        <v>704</v>
+      </c>
+      <c r="F13" t="s">
+        <v>706</v>
+      </c>
+      <c r="G13" t="s">
+        <v>708</v>
+      </c>
+      <c r="M13">
+        <f>SUM(M10:M12)</f>
+        <v>1033.3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14">
+        <f>'Freight Truck Energy Cnsumption'!V13</f>
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <f>'Light Truck Energy Consumption'!U12</f>
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="43">
+        <f>C14-D14-E14</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G14">
+        <f>F14/SUM(F$14:F$17)</f>
+        <v>1.4371465299614565E-3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>697</v>
+      </c>
+      <c r="P14">
+        <f>46*0.75*10^-9</f>
+        <v>3.4500000000000005E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15">
+        <f>'Freight Truck Energy Cnsumption'!V14</f>
+        <v>386.4</v>
+      </c>
+      <c r="D15">
+        <f>'Light Truck Energy Consumption'!U13</f>
+        <v>229.7</v>
+      </c>
+      <c r="E15" s="43">
+        <f>'Medium Truck Energy Consumption'!U11</f>
+        <v>156.749075</v>
+      </c>
+      <c r="F15" s="43">
+        <f>C15-D15-E15</f>
+        <v>-4.9075000000016189E-2</v>
+      </c>
+      <c r="G15">
+        <f>F15/SUM(F$14:F$17)</f>
+        <v>-1.007542370826882E-4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>698</v>
+      </c>
+      <c r="P15">
+        <f>45*0.88*10^-9</f>
+        <v>3.9600000000000004E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16">
+        <f>'Freight Truck Energy Cnsumption'!V15</f>
+        <v>642.4</v>
+      </c>
+      <c r="D16">
+        <f>'Light Truck Energy Consumption'!U14</f>
+        <v>2.9</v>
+      </c>
+      <c r="E16" s="43">
+        <f>'Medium Truck Energy Consumption'!U12</f>
+        <v>153.574635</v>
+      </c>
+      <c r="F16" s="43">
+        <f>C16-D16-E16</f>
+        <v>485.925365</v>
+      </c>
+      <c r="G16">
+        <f>F16/SUM(F$14:F$17)</f>
+        <v>0.99763707447143446</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17">
+        <f>'Freight Truck Energy Cnsumption'!V18</f>
+        <v>5.9</v>
+      </c>
+      <c r="D17">
+        <f>'Light Truck Energy Consumption'!U17</f>
+        <v>5.4</v>
+      </c>
+      <c r="F17" s="43">
+        <f>C17-D17-E17</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <f>F17/SUM(F$14:F$17)</f>
+        <v>1.0265332356867547E-3</v>
+      </c>
+      <c r="L17" s="111"/>
+      <c r="M17" s="112" t="s">
+        <v>693</v>
+      </c>
+      <c r="N17" s="112" t="s">
+        <v>690</v>
+      </c>
+      <c r="O17" s="112" t="s">
+        <v>691</v>
+      </c>
+      <c r="P17" s="112" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="L18" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="113">
+        <f>SUM(N18:P18)</f>
+        <v>5572</v>
+      </c>
+      <c r="N18" s="113">
+        <f>Trucks!V25</f>
+        <v>3397</v>
+      </c>
+      <c r="O18" s="113">
+        <f>Trucks!V26</f>
+        <v>1694</v>
+      </c>
+      <c r="P18" s="113">
+        <f>Trucks!V27</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" t="s">
+        <v>709</v>
+      </c>
+      <c r="L19" s="111" t="s">
+        <v>694</v>
+      </c>
+      <c r="M19" s="113">
+        <f>SUMPRODUCT(N18:P18,N19:P19)/SUM(N18:P18)</f>
+        <v>26258.765972720747</v>
+      </c>
+      <c r="N19" s="113">
+        <f>Trucks!V37</f>
+        <v>18436</v>
+      </c>
+      <c r="O19" s="113">
+        <f>Trucks!V38</f>
+        <v>24734</v>
+      </c>
+      <c r="P19" s="113">
+        <f>Trucks!V39</f>
+        <v>86876</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" t="s">
+        <v>710</v>
+      </c>
+      <c r="L20" s="114" t="s">
+        <v>695</v>
+      </c>
+      <c r="M20" s="114">
+        <f>'Freight Truck Energy Cnsumption'!V14</f>
+        <v>386.4</v>
+      </c>
+      <c r="N20" s="114">
+        <f>'Light Truck Energy Consumption'!U13</f>
+        <v>229.7</v>
+      </c>
+      <c r="O20" s="115">
+        <f>'Medium Truck Energy Consumption'!U17</f>
+        <v>50.322330000000001</v>
+      </c>
+      <c r="P20" s="115">
+        <f>M20-N20-O20</f>
+        <v>106.37766999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" t="s">
+        <v>711</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="M21" s="31">
+        <f>'Freight Truck Energy Cnsumption'!V15</f>
+        <v>642.4</v>
+      </c>
+      <c r="N21" s="31">
+        <f>'Light Truck Energy Consumption'!U14</f>
+        <v>2.9</v>
+      </c>
+      <c r="O21" s="116">
+        <f>'Medium Truck Energy Consumption'!U18</f>
+        <v>49.303215000000002</v>
+      </c>
+      <c r="P21" s="116">
+        <f>M21-N21-O21</f>
+        <v>590.19678499999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>712</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="L22" s="114" t="s">
+        <v>700</v>
+      </c>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114">
+        <f>Trucks!V47</f>
+        <v>10.9</v>
+      </c>
+      <c r="O22" s="114">
+        <f>Trucks!V51</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P22" s="114"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="L23" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31">
+        <f>Trucks!V48</f>
+        <v>9</v>
+      </c>
+      <c r="O23" s="31">
+        <f>Trucks!V52</f>
+        <v>20.3</v>
+      </c>
+      <c r="P23" s="31">
+        <f>Trucks!V55</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="L24" s="114" t="s">
+        <v>702</v>
+      </c>
+      <c r="M24" s="114">
+        <f>$P$14*M22*(M19*100)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="114">
+        <f>$P$14*N22*(N19*100)</f>
+        <v>0.69328578000000007</v>
+      </c>
+      <c r="O24" s="114">
+        <f>$P$14*O22*(O19*100)</f>
+        <v>1.7407789200000001</v>
+      </c>
+      <c r="P24" s="114">
+        <f>$P$14*P22*(P19*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="6"/>
+      <c r="L25" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="M25" s="31">
+        <f>$P$15*M23*(M19*100)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <f>$P$15*N23*(N19*100)</f>
+        <v>0.65705904000000004</v>
+      </c>
+      <c r="O25" s="31">
+        <f>$P$15*O23*(O19*100)</f>
+        <v>1.9883167920000002</v>
+      </c>
+      <c r="P25" s="31">
+        <f>$P$15*P23*(P19*100)</f>
+        <v>10.458480384000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39111,13 +39803,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFA7B51-9B25-49E5-92FE-9FCDA0FB4CFC}">
   <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
@@ -39543,7 +40235,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="45">
+    <row r="12" spans="1:20" ht="43.2">
       <c r="A12" s="8" t="s">
         <v>635</v>
       </c>
@@ -39962,14 +40654,14 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="18">
+    <row r="2" spans="2:22" ht="17.399999999999999">
       <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
@@ -40018,7 +40710,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="2:22" ht="15.75">
+    <row r="4" spans="2:22" ht="15.6">
       <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
@@ -40042,7 +40734,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75">
+    <row r="5" spans="2:22" ht="15.6">
       <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
@@ -40465,7 +41157,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="2:22" ht="51.75">
+    <row r="18" spans="2:22" ht="40.200000000000003">
       <c r="B18" s="13"/>
       <c r="C18" s="19" t="s">
         <v>57</v>
@@ -40576,7 +41268,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="2:22" ht="51.75">
+    <row r="21" spans="2:22" ht="53.4">
       <c r="B21" s="13"/>
       <c r="C21" s="19" t="s">
         <v>58</v>
@@ -41224,15 +41916,15 @@
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="18">
+    <row r="2" spans="1:21" ht="17.399999999999999">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -41282,7 +41974,7 @@
       <c r="T3" s="50"/>
       <c r="U3" s="50"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75">
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -41307,7 +41999,7 @@
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75">
+    <row r="5" spans="1:21" ht="15.6">
       <c r="A5" s="14" t="s">
         <v>240</v>
       </c>
@@ -41462,7 +42154,7 @@
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="16.2">
       <c r="A10" s="17"/>
       <c r="B10" s="19" t="s">
         <v>241</v>
@@ -42093,7 +42785,7 @@
       <c r="T24" s="50"/>
       <c r="U24" s="50"/>
     </row>
-    <row r="25" spans="1:21" ht="28.5">
+    <row r="25" spans="1:21" ht="31.2">
       <c r="A25" s="17"/>
       <c r="B25" s="64" t="s">
         <v>243</v>
@@ -42632,11 +43324,11 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="116" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -50404,22 +51096,22 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="8" t="s">
         <v>635</v>
       </c>
@@ -50511,6 +51203,7 @@
         <f>'EPS 3.3.1 data'!T5</f>
         <v>14.614802219298447</v>
       </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10">
@@ -50715,23 +51408,23 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="8" t="s">
         <v>635</v>
       </c>
@@ -50765,9 +51458,9 @@
         <f>'EPS 3.3.1 data'!N13</f>
         <v>9.6899544764795156</v>
       </c>
-      <c r="C2" s="6">
-        <f>'EPS 3.3.1 data'!O13</f>
-        <v>1714.9602123823977</v>
+      <c r="C2" s="109">
+        <f>Freight!D2</f>
+        <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>Freight!E2</f>
@@ -50801,28 +51494,29 @@
       </c>
       <c r="C3" s="6">
         <f>Freight!D3</f>
-        <v>5572</v>
+        <v>691.26748091146055</v>
       </c>
       <c r="D3" s="6">
         <f>Freight!E3</f>
-        <v>853231.53789999988</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <f>Freight!F3</f>
-        <v>1316196.4621000001</v>
+        <v>479863.43282075995</v>
       </c>
       <c r="F3" s="6">
         <f>'EPS 3.3.1 data'!R14</f>
         <v>23.302033383915024</v>
       </c>
-      <c r="G3" s="6">
-        <f>'EPS 3.3.1 data'!S14</f>
-        <v>462.34925644916547</v>
+      <c r="G3" s="109">
+        <f>Freight!H3</f>
+        <v>493</v>
       </c>
       <c r="H3" s="6">
         <f>'EPS 3.3.1 data'!T14</f>
         <v>13.150652503793626</v>
       </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10">
@@ -50928,7 +51622,7 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="108" t="s">
         <v>646</v>
       </c>
       <c r="B7" s="6">
@@ -50939,13 +51633,13 @@
         <f>'EPS 3.3.1 data'!O18</f>
         <v>0</v>
       </c>
-      <c r="D7" s="6">
-        <f>'EPS 3.3.1 data'!P18</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <f>'EPS 3.3.1 data'!Q18</f>
-        <v>0</v>
+      <c r="D7" s="109">
+        <f>Freight!E7</f>
+        <v>852460</v>
+      </c>
+      <c r="E7" s="109">
+        <f>Freight!F7</f>
+        <v>835196</v>
       </c>
       <c r="F7" s="6">
         <f>'EPS 3.3.1 data'!R18</f>
@@ -50970,13 +51664,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CF0FB4-E807-48E0-A6D3-BD685128A276}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -51003,7 +51697,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="2:23" ht="18">
+    <row r="3" spans="2:23" ht="17.399999999999999">
       <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
@@ -51054,7 +51748,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
     </row>
-    <row r="5" spans="2:23" ht="15.75">
+    <row r="5" spans="2:23" ht="15.6">
       <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
@@ -51079,7 +51773,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="2:23" ht="15.75">
+    <row r="6" spans="2:23" ht="15.6">
       <c r="B6" s="14" t="s">
         <v>86</v>
       </c>
@@ -52792,7 +53486,7 @@
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
     </row>
-    <row r="42" spans="2:23" ht="90">
+    <row r="42" spans="2:23" ht="93">
       <c r="B42" s="13"/>
       <c r="C42" s="19" t="s">
         <v>92</v>
@@ -52970,7 +53664,7 @@
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
     </row>
-    <row r="46" spans="2:23" ht="90">
+    <row r="46" spans="2:23" ht="93">
       <c r="B46" s="13"/>
       <c r="C46" s="19" t="s">
         <v>93</v>
@@ -53148,7 +53842,7 @@
       <c r="V49" s="13"/>
       <c r="W49" s="13"/>
     </row>
-    <row r="50" spans="2:23" ht="90">
+    <row r="50" spans="2:23" ht="93">
       <c r="B50" s="13"/>
       <c r="C50" s="19" t="s">
         <v>96</v>
@@ -53326,7 +54020,7 @@
       <c r="V53" s="13"/>
       <c r="W53" s="13"/>
     </row>
-    <row r="54" spans="2:23" ht="77.25">
+    <row r="54" spans="2:23" ht="79.8">
       <c r="B54" s="13"/>
       <c r="C54" s="19" t="s">
         <v>97</v>
@@ -53528,11 +54222,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E3558-C86E-46EF-8524-432972FDBF0C}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U11" sqref="U11:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13"/>
@@ -53558,7 +54255,7 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:22" ht="18">
+    <row r="2" spans="1:22" ht="17.399999999999999">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -53609,7 +54306,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75">
+    <row r="4" spans="1:22" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -53634,7 +54331,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75">
+    <row r="5" spans="1:22" ht="15.6">
       <c r="A5" s="14" t="s">
         <v>99</v>
       </c>
@@ -54277,7 +54974,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22" ht="77.25">
+    <row r="20" spans="1:22" ht="53.4">
       <c r="A20" s="13"/>
       <c r="B20" s="19" t="s">
         <v>57</v>
@@ -54628,9 +55325,9 @@
       <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:23" ht="18">
+    <row r="2" spans="2:23" ht="17.399999999999999">
       <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
@@ -54681,7 +55378,7 @@
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="2:23" ht="15.75">
+    <row r="4" spans="2:23" ht="15.6">
       <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
@@ -54706,7 +55403,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="2:23" ht="15.75">
+    <row r="5" spans="2:23" ht="15.6">
       <c r="B5" s="14" t="s">
         <v>103</v>
       </c>
@@ -54859,7 +55556,7 @@
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" ht="16.2">
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
         <v>104</v>
@@ -56529,7 +57226,7 @@
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
     </row>
-    <row r="41" spans="2:23">
+    <row r="41" spans="2:23" ht="16.8">
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
         <v>119</v>
@@ -56593,7 +57290,7 @@
       </c>
       <c r="W41" s="13"/>
     </row>
-    <row r="42" spans="2:23" ht="78">
+    <row r="42" spans="2:23" ht="80.400000000000006">
       <c r="B42" s="13"/>
       <c r="C42" s="30" t="s">
         <v>120</v>
@@ -58239,7 +58936,7 @@
       </c>
       <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="2:23" ht="117">
+    <row r="72" spans="2:23" ht="121.8">
       <c r="B72" s="7"/>
       <c r="C72" s="29" t="s">
         <v>123</v>
@@ -58364,9 +59061,9 @@
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
@@ -58443,7 +59140,7 @@
       <c r="K5" s="89"/>
       <c r="Q5" s="70"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75">
+    <row r="6" spans="1:17" ht="18">
       <c r="A6" s="89" t="s">
         <v>131</v>
       </c>
@@ -58465,7 +59162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75">
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="89" t="s">
         <v>133</v>
       </c>
@@ -58487,7 +59184,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.75">
+    <row r="8" spans="1:17" ht="18">
       <c r="A8" s="89" t="s">
         <v>135</v>
       </c>
@@ -58509,7 +59206,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.75">
+    <row r="9" spans="1:17" ht="18">
       <c r="A9" s="91" t="s">
         <v>137</v>
       </c>
@@ -58527,7 +59224,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.75">
+    <row r="10" spans="1:17" ht="18">
       <c r="A10" s="89" t="s">
         <v>131</v>
       </c>
@@ -58549,7 +59246,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75">
+    <row r="11" spans="1:17" ht="18">
       <c r="A11" s="89" t="s">
         <v>133</v>
       </c>
@@ -58571,7 +59268,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.75">
+    <row r="12" spans="1:17" ht="18">
       <c r="A12" s="89" t="s">
         <v>135</v>
       </c>
@@ -58593,7 +59290,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.75">
+    <row r="13" spans="1:17" ht="18">
       <c r="A13" s="91" t="s">
         <v>141</v>
       </c>
@@ -58611,7 +59308,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75">
+    <row r="14" spans="1:17" ht="18">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -58633,7 +59330,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.75">
+    <row r="15" spans="1:17" ht="18">
       <c r="A15" s="89" t="s">
         <v>133</v>
       </c>
@@ -58655,7 +59352,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75">
+    <row r="16" spans="1:17" ht="18">
       <c r="A16" s="89" t="s">
         <v>135</v>
       </c>
@@ -58677,7 +59374,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.75">
+    <row r="17" spans="1:17" ht="18">
       <c r="A17" s="89"/>
       <c r="B17" s="89"/>
       <c r="C17" s="89"/>
@@ -58693,7 +59390,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.75">
+    <row r="18" spans="1:17" ht="18">
       <c r="A18" s="92" t="s">
         <v>145</v>
       </c>
@@ -58711,7 +59408,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.75">
+    <row r="19" spans="1:17" ht="18">
       <c r="A19" s="89" t="s">
         <v>131</v>
       </c>
@@ -58729,7 +59426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.75">
+    <row r="20" spans="1:17" ht="18">
       <c r="A20" s="89" t="s">
         <v>133</v>
       </c>
@@ -58747,7 +59444,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.75">
+    <row r="21" spans="1:17" ht="18">
       <c r="A21" s="89" t="s">
         <v>135</v>
       </c>
@@ -58785,7 +59482,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75">
+    <row r="22" spans="1:17" ht="18">
       <c r="A22" s="89"/>
       <c r="B22" s="89"/>
       <c r="C22" s="89"/>
@@ -58801,7 +59498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.75">
+    <row r="23" spans="1:17" ht="18">
       <c r="A23" s="92" t="s">
         <v>149</v>
       </c>
@@ -58819,7 +59516,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.75">
+    <row r="24" spans="1:17" ht="18">
       <c r="A24" s="89" t="s">
         <v>150</v>
       </c>
@@ -58837,7 +59534,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.75">
+    <row r="25" spans="1:17" ht="18">
       <c r="A25" s="94" t="s">
         <v>131</v>
       </c>
@@ -58855,7 +59552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.75">
+    <row r="26" spans="1:17" ht="18">
       <c r="A26" s="89" t="s">
         <v>133</v>
       </c>
@@ -58873,7 +59570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.75">
+    <row r="27" spans="1:17" ht="18">
       <c r="A27" s="89" t="s">
         <v>135</v>
       </c>
@@ -58891,7 +59588,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75">
+    <row r="28" spans="1:17" ht="18">
       <c r="A28" s="91" t="s">
         <v>154</v>
       </c>
@@ -58909,7 +59606,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75">
+    <row r="29" spans="1:17" ht="18">
       <c r="A29" s="89" t="s">
         <v>131</v>
       </c>
@@ -58927,7 +59624,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75">
+    <row r="30" spans="1:17" ht="18">
       <c r="A30" s="89" t="s">
         <v>133</v>
       </c>
@@ -58943,7 +59640,7 @@
       <c r="K30" s="89"/>
       <c r="Q30" s="87"/>
     </row>
-    <row r="31" spans="1:17" ht="18.75">
+    <row r="31" spans="1:17" ht="18">
       <c r="A31" s="89" t="s">
         <v>135</v>
       </c>
@@ -58959,7 +59656,7 @@
       <c r="K31" s="89"/>
       <c r="Q31" s="87"/>
     </row>
-    <row r="32" spans="1:17" ht="18.75">
+    <row r="32" spans="1:17" ht="18">
       <c r="A32" s="91" t="s">
         <v>158</v>
       </c>
@@ -58977,7 +59674,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.75">
+    <row r="33" spans="1:17" ht="18">
       <c r="A33" s="89" t="s">
         <v>131</v>
       </c>
@@ -58995,7 +59692,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.75">
+    <row r="34" spans="1:17" ht="18">
       <c r="A34" s="89" t="s">
         <v>133</v>
       </c>
@@ -59013,7 +59710,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18.75">
+    <row r="35" spans="1:17" ht="18">
       <c r="A35" s="89" t="s">
         <v>135</v>
       </c>
@@ -59047,7 +59744,7 @@
       <c r="K36" s="89"/>
       <c r="Q36" s="70"/>
     </row>
-    <row r="37" spans="1:17" ht="18.75">
+    <row r="37" spans="1:17" ht="18">
       <c r="A37" s="89" t="s">
         <v>131</v>
       </c>
@@ -59065,7 +59762,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18.75">
+    <row r="38" spans="1:17" ht="18">
       <c r="A38" s="89" t="s">
         <v>133</v>
       </c>
@@ -59083,7 +59780,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18.75">
+    <row r="39" spans="1:17" ht="18">
       <c r="A39" s="89" t="s">
         <v>135</v>
       </c>
@@ -59101,7 +59798,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18.75">
+    <row r="40" spans="1:17" ht="18">
       <c r="A40" s="91" t="s">
         <v>165</v>
       </c>
@@ -59119,7 +59816,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75">
+    <row r="41" spans="1:17" ht="18">
       <c r="A41" s="89" t="s">
         <v>131</v>
       </c>
@@ -59153,7 +59850,7 @@
       <c r="K42" s="89"/>
       <c r="Q42" s="70"/>
     </row>
-    <row r="43" spans="1:17" ht="18.75">
+    <row r="43" spans="1:17" ht="18">
       <c r="A43" s="89" t="s">
         <v>135</v>
       </c>
@@ -59171,7 +59868,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="18.75">
+    <row r="44" spans="1:17" ht="18">
       <c r="A44" s="91" t="s">
         <v>168</v>
       </c>
@@ -59189,7 +59886,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18.75">
+    <row r="45" spans="1:17" ht="18">
       <c r="A45" s="89" t="s">
         <v>131</v>
       </c>
@@ -59207,7 +59904,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.75">
+    <row r="46" spans="1:17" ht="18">
       <c r="A46" s="89" t="s">
         <v>133</v>
       </c>
@@ -59245,17 +59942,17 @@
       </c>
       <c r="Q47" s="70"/>
     </row>
-    <row r="48" spans="1:17" ht="18.75">
+    <row r="48" spans="1:17" ht="18">
       <c r="Q48" s="87" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="18.75">
+    <row r="49" spans="1:17" ht="18">
       <c r="Q49" s="87" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="18.75">
+    <row r="50" spans="1:17" ht="18">
       <c r="Q50" s="87" t="s">
         <v>173</v>
       </c>
@@ -59301,7 +59998,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="30">
+    <row r="62" spans="1:17" ht="28.8">
       <c r="B62" s="8" t="s">
         <v>180</v>
       </c>
@@ -59459,28 +60156,28 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" thickBot="1">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="118" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="108" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="118" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="120"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="74" t="s">
@@ -59620,7 +60317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="80" t="s">
         <v>135</v>
       </c>
@@ -59658,23 +60355,23 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="23.25">
+    <row r="16" spans="1:7" ht="22.8">
       <c r="B16" s="85"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="2:4" ht="23.25">
+    <row r="17" spans="2:4" ht="22.8">
       <c r="B17" s="84"/>
     </row>
-    <row r="18" spans="2:4" ht="23.25">
+    <row r="18" spans="2:4" ht="22.8">
       <c r="B18" s="84"/>
     </row>
-    <row r="19" spans="2:4" ht="23.25">
+    <row r="19" spans="2:4" ht="22.8">
       <c r="B19" s="84"/>
     </row>
-    <row r="20" spans="2:4" ht="23.25">
+    <row r="20" spans="2:4" ht="22.8">
       <c r="B20" s="84"/>
     </row>
-    <row r="21" spans="2:4" ht="23.25">
+    <row r="21" spans="2:4" ht="22.8">
       <c r="B21" s="85"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -59692,13 +60389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF25D4-4F6F-4467-9DA6-CE7575DCD7B1}">
   <dimension ref="B2:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:22" ht="18">
+    <row r="2" spans="2:22" ht="17.399999999999999">
       <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
@@ -59747,7 +60444,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="2:22" ht="15.75">
+    <row r="4" spans="2:22" ht="15.6">
       <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
@@ -59771,7 +60468,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75">
+    <row r="5" spans="2:22" ht="15.6">
       <c r="B5" s="14" t="s">
         <v>205</v>
       </c>
@@ -61183,7 +61880,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
     </row>
-    <row r="35" spans="2:22">
+    <row r="35" spans="2:22" ht="15.6">
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
         <v>215</v>
@@ -62333,7 +63030,7 @@
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
     </row>
-    <row r="57" spans="2:22" ht="103.5">
+    <row r="57" spans="2:22" ht="108">
       <c r="B57" s="13"/>
       <c r="C57" s="19" t="s">
         <v>217</v>
@@ -62405,11 +63102,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981988A5-7B36-4947-AA41-3D33453ED38A}">
   <dimension ref="B2:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:23">
       <c r="B2" s="13"/>
@@ -62435,7 +63132,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="2:23" ht="18">
+    <row r="3" spans="2:23" ht="17.399999999999999">
       <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
@@ -62486,7 +63183,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
     </row>
-    <row r="5" spans="2:23" ht="15.75">
+    <row r="5" spans="2:23" ht="15.6">
       <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
@@ -62511,7 +63208,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="2:23" ht="15.75">
+    <row r="6" spans="2:23" ht="15.6">
       <c r="B6" s="14" t="s">
         <v>218</v>
       </c>
@@ -63825,7 +64522,7 @@
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
     </row>
-    <row r="34" spans="2:23">
+    <row r="34" spans="2:23" ht="15.6">
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
         <v>220</v>
@@ -64875,6 +65572,42 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -65134,43 +65867,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <SharedWithUsers xmlns="d580559a-617d-4d7d-8fb9-71ff64b58360">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058E23EF-3D90-4B93-86C7-1785D5F5FEB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B880F57-318B-415D-9293-8F1EFC390ADC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9965FDF5-AB8E-4FE1-9C03-E430C1370BAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65188,24 +65905,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058E23EF-3D90-4B93-86C7-1785D5F5FEB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B880F57-318B-415D-9293-8F1EFC390ADC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/SYVbT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{A768109A-AD31-43DE-908B-C390333AD68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55D0435-F005-4128-BE62-400352AA1C3F}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="13_ncr:1_{A768109A-AD31-43DE-908B-C390333AD68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291A3BD6-54EF-42A1-A1B9-7B78040FF266}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="988" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="714">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -2804,6 +2804,9 @@
   </si>
   <si>
     <t>and MDVs/motorbikes)</t>
+  </si>
+  <si>
+    <t>Transportation Total Energy Check</t>
   </si>
 </sst>
 </file>
@@ -4008,7 +4011,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4205,6 +4208,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="143">
@@ -39190,7 +39196,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -39198,8 +39204,9 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="17" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="12.77734375" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="43.2">
@@ -39231,6 +39238,9 @@
         <v>643</v>
       </c>
       <c r="K1" s="8"/>
+      <c r="L1" s="121" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="34" t="s">
@@ -65572,42 +65582,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <SharedWithUsers xmlns="d580559a-617d-4d7d-8fb9-71ff64b58360">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -65867,27 +65841,43 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058E23EF-3D90-4B93-86C7-1785D5F5FEB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B880F57-318B-415D-9293-8F1EFC390ADC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9965FDF5-AB8E-4FE1-9C03-E430C1370BAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65905,4 +65895,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B880F57-318B-415D-9293-8F1EFC390ADC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058E23EF-3D90-4B93-86C7-1785D5F5FEB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>